--- a/450_Questions/450Question.xlsx
+++ b/450_Questions/450Question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions By Love Babbar:</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Yes, Do Again</t>
   </si>
   <si>
     <t>Kadane's Algo [V.V.V.V.V IMP]</t>
@@ -1419,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1499,7 +1502,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1513,7 +1516,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1526,7 +1529,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1541,13 +1544,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1556,11 +1552,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1579,11 +1575,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1595,15 +1591,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1633,8 +1620,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,7 +1650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,19 +1665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,19 +1683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,7 +1713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,19 +1731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,7 +1755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,13 +1773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,7 +1791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,19 +1815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,13 +1833,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,15 +1870,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1915,11 +1915,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1953,153 +1951,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2124,6 +2133,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2451,13 +2464,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
@@ -2611,47 +2624,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="21" spans="1:3">
+    <row r="17" ht="21" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" ht="21" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="21" spans="1:3">
-      <c r="A18" s="10" t="s">
+    <row r="19" ht="21" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" ht="21" spans="1:3">
-      <c r="A19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2659,8 +2673,8 @@
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>23</v>
+      <c r="B21" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>5</v>
@@ -2670,8 +2684,8 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
+      <c r="B22" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
@@ -2681,8 +2695,8 @@
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>25</v>
+      <c r="B23" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -2692,8 +2706,8 @@
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>26</v>
+      <c r="B24" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -2703,8 +2717,8 @@
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>27</v>
+      <c r="B25" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
@@ -2714,8 +2728,8 @@
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>28</v>
+      <c r="B26" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
@@ -2725,8 +2739,8 @@
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>29</v>
+      <c r="B27" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
@@ -2736,8 +2750,8 @@
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>30</v>
+      <c r="B28" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
@@ -2747,8 +2761,8 @@
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>31</v>
+      <c r="B29" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>5</v>
@@ -2758,8 +2772,8 @@
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>32</v>
+      <c r="B30" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
@@ -2769,8 +2783,8 @@
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>33</v>
+      <c r="B31" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
@@ -2780,8 +2794,8 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>34</v>
+      <c r="B32" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -2791,8 +2805,8 @@
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>35</v>
+      <c r="B33" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
@@ -2802,8 +2816,8 @@
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>36</v>
+      <c r="B34" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
@@ -2813,8 +2827,8 @@
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>37</v>
+      <c r="B35" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
@@ -2824,8 +2838,8 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>38</v>
+      <c r="B36" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
@@ -2835,8 +2849,8 @@
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>39</v>
+      <c r="B37" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
@@ -2846,8 +2860,8 @@
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>40</v>
+      <c r="B38" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -2857,8 +2871,8 @@
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>41</v>
+      <c r="B39" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
@@ -2868,8 +2882,8 @@
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>42</v>
+      <c r="B40" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
@@ -2879,131 +2893,131 @@
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>43</v>
+      <c r="B41" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="13"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="10"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="B44" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>46</v>
+      <c r="A45" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>47</v>
+      <c r="A46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>48</v>
+      <c r="A47" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>49</v>
+      <c r="A48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>50</v>
+      <c r="A49" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>51</v>
+      <c r="A50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>52</v>
+      <c r="A51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>53</v>
+      <c r="A52" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>54</v>
+      <c r="A53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
@@ -3011,15 +3025,15 @@
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="10"/>
-      <c r="B55" s="13"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="12" t="s">
         <v>56</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>5</v>
@@ -3027,10 +3041,10 @@
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>5</v>
@@ -3038,10 +3052,10 @@
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>5</v>
@@ -3049,10 +3063,10 @@
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>5</v>
@@ -3060,10 +3074,10 @@
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>5</v>
@@ -3071,10 +3085,10 @@
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>5</v>
@@ -3082,10 +3096,10 @@
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>5</v>
@@ -3093,10 +3107,10 @@
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>5</v>
@@ -3104,10 +3118,10 @@
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>5</v>
@@ -3115,10 +3129,10 @@
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>5</v>
@@ -3126,10 +3140,10 @@
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>5</v>
@@ -3137,10 +3151,10 @@
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
@@ -3148,10 +3162,10 @@
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>5</v>
@@ -3159,10 +3173,10 @@
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>5</v>
@@ -3170,10 +3184,10 @@
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>5</v>
@@ -3181,10 +3195,10 @@
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>5</v>
@@ -3192,10 +3206,10 @@
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>5</v>
@@ -3203,10 +3217,10 @@
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>5</v>
@@ -3214,10 +3228,10 @@
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>5</v>
@@ -3225,10 +3239,10 @@
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>5</v>
@@ -3236,10 +3250,10 @@
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>5</v>
@@ -3247,10 +3261,10 @@
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>5</v>
@@ -3258,10 +3272,10 @@
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>5</v>
@@ -3269,10 +3283,10 @@
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>5</v>
@@ -3280,10 +3294,10 @@
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>5</v>
@@ -3291,10 +3305,10 @@
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>5</v>
@@ -3302,10 +3316,10 @@
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>82</v>
+        <v>56</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>5</v>
@@ -3313,10 +3327,10 @@
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
@@ -3324,10 +3338,10 @@
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>5</v>
@@ -3335,10 +3349,10 @@
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>5</v>
@@ -3346,10 +3360,10 @@
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>5</v>
@@ -3357,10 +3371,10 @@
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>87</v>
+        <v>56</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>5</v>
@@ -3368,10 +3382,10 @@
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>88</v>
+        <v>56</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
@@ -3379,10 +3393,10 @@
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>5</v>
@@ -3390,10 +3404,10 @@
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>5</v>
@@ -3401,10 +3415,10 @@
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>91</v>
+        <v>56</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>5</v>
@@ -3412,10 +3426,10 @@
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>5</v>
@@ -3423,10 +3437,10 @@
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>93</v>
+        <v>56</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>5</v>
@@ -3434,10 +3448,10 @@
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>5</v>
@@ -3445,10 +3459,10 @@
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>95</v>
+        <v>56</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>5</v>
@@ -3456,10 +3470,10 @@
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>96</v>
+        <v>56</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>5</v>
@@ -3467,10 +3481,10 @@
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>97</v>
+        <v>56</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>5</v>
@@ -3478,26 +3492,26 @@
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>98</v>
+        <v>56</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="14"/>
-      <c r="B100" s="13"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="12" t="s">
         <v>100</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>5</v>
@@ -3505,10 +3519,10 @@
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>5</v>
@@ -3516,10 +3530,10 @@
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>5</v>
@@ -3527,10 +3541,10 @@
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>5</v>
@@ -3538,10 +3552,10 @@
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>5</v>
@@ -3549,10 +3563,10 @@
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>5</v>
@@ -3560,10 +3574,10 @@
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>5</v>
@@ -3571,10 +3585,10 @@
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>5</v>
@@ -3582,10 +3596,10 @@
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>5</v>
@@ -3593,10 +3607,10 @@
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>5</v>
@@ -3604,10 +3618,10 @@
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>5</v>
@@ -3615,10 +3629,10 @@
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>5</v>
@@ -3626,10 +3640,10 @@
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>5</v>
@@ -3637,10 +3651,10 @@
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>5</v>
@@ -3648,10 +3662,10 @@
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>5</v>
@@ -3659,10 +3673,10 @@
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>115</v>
+        <v>100</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>5</v>
@@ -3670,10 +3684,10 @@
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>5</v>
@@ -3681,10 +3695,10 @@
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>5</v>
@@ -3692,10 +3706,10 @@
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>5</v>
@@ -3703,10 +3717,10 @@
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>5</v>
@@ -3714,10 +3728,10 @@
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>5</v>
@@ -3725,10 +3739,10 @@
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>5</v>
@@ -3736,10 +3750,10 @@
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>5</v>
@@ -3747,10 +3761,10 @@
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>123</v>
+        <v>100</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>5</v>
@@ -3758,10 +3772,10 @@
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>124</v>
+        <v>100</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>5</v>
@@ -3769,10 +3783,10 @@
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>5</v>
@@ -3780,10 +3794,10 @@
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>126</v>
+        <v>100</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>5</v>
@@ -3791,10 +3805,10 @@
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>5</v>
@@ -3802,10 +3816,10 @@
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>5</v>
@@ -3813,10 +3827,10 @@
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>129</v>
+        <v>100</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>5</v>
@@ -3824,10 +3838,10 @@
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>130</v>
+        <v>100</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>5</v>
@@ -3835,10 +3849,10 @@
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>131</v>
+        <v>100</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>5</v>
@@ -3846,10 +3860,10 @@
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>132</v>
+        <v>100</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>5</v>
@@ -3857,10 +3871,10 @@
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>5</v>
@@ -3868,10 +3882,10 @@
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>5</v>
@@ -3879,425 +3893,425 @@
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>135</v>
+        <v>100</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="13"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="12" t="s">
+      <c r="A139" s="16" t="s">
         <v>137</v>
       </c>
+      <c r="B139" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="C139" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>138</v>
+      <c r="A140" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>139</v>
+      <c r="A141" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>140</v>
+      <c r="A142" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>141</v>
+      <c r="A143" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>142</v>
+      <c r="A144" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>143</v>
+      <c r="A145" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>144</v>
+      <c r="A146" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>145</v>
+      <c r="A147" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>146</v>
+      <c r="A148" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>147</v>
+      <c r="A149" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>148</v>
+      <c r="A150" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>149</v>
+      <c r="A151" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>150</v>
+      <c r="A152" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>151</v>
+      <c r="A153" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>152</v>
+      <c r="A154" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>153</v>
+      <c r="A155" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>154</v>
+      <c r="A156" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>155</v>
+      <c r="A157" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>156</v>
+      <c r="A158" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>157</v>
+      <c r="A159" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>158</v>
+      <c r="A160" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>159</v>
+      <c r="A161" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>160</v>
+      <c r="A162" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>161</v>
+      <c r="A163" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>162</v>
+      <c r="A164" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>163</v>
+      <c r="A165" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>164</v>
+      <c r="A166" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B167" s="12" t="s">
-        <v>165</v>
+      <c r="A167" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>166</v>
+      <c r="A168" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>167</v>
+      <c r="A169" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>168</v>
+      <c r="A170" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>169</v>
+      <c r="A171" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>170</v>
+      <c r="A172" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>171</v>
+      <c r="A173" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>172</v>
+      <c r="A174" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="13"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B177" s="12" t="s">
         <v>174</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>5</v>
@@ -4305,10 +4319,10 @@
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>5</v>
@@ -4316,10 +4330,10 @@
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>5</v>
@@ -4327,10 +4341,10 @@
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B180" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>5</v>
@@ -4338,10 +4352,10 @@
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>5</v>
@@ -4349,10 +4363,10 @@
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>5</v>
@@ -4360,10 +4374,10 @@
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>5</v>
@@ -4371,10 +4385,10 @@
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>5</v>
@@ -4382,10 +4396,10 @@
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>5</v>
@@ -4393,10 +4407,10 @@
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>5</v>
@@ -4404,10 +4418,10 @@
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>5</v>
@@ -4415,10 +4429,10 @@
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>185</v>
+        <v>174</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>5</v>
@@ -4426,10 +4440,10 @@
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>5</v>
@@ -4437,10 +4451,10 @@
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>187</v>
+        <v>174</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>5</v>
@@ -4448,10 +4462,10 @@
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>188</v>
+        <v>174</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>5</v>
@@ -4459,10 +4473,10 @@
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>189</v>
+        <v>174</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>190</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>5</v>
@@ -4470,10 +4484,10 @@
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B193" s="12" t="s">
-        <v>190</v>
+        <v>174</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>5</v>
@@ -4481,10 +4495,10 @@
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>191</v>
+        <v>174</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>5</v>
@@ -4492,10 +4506,10 @@
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>5</v>
@@ -4503,10 +4517,10 @@
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>5</v>
@@ -4514,10 +4528,10 @@
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>194</v>
+        <v>174</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>5</v>
@@ -4525,10 +4539,10 @@
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>195</v>
+        <v>174</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>5</v>
@@ -4536,10 +4550,10 @@
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>196</v>
+        <v>174</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>5</v>
@@ -4547,10 +4561,10 @@
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B200" s="12" t="s">
-        <v>197</v>
+        <v>174</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>5</v>
@@ -4558,10 +4572,10 @@
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>198</v>
+        <v>174</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
@@ -4569,10 +4583,10 @@
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B202" s="12" t="s">
-        <v>199</v>
+        <v>174</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>5</v>
@@ -4580,10 +4594,10 @@
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>200</v>
+        <v>174</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>5</v>
@@ -4591,10 +4605,10 @@
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B204" s="12" t="s">
-        <v>201</v>
+        <v>174</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>5</v>
@@ -4602,10 +4616,10 @@
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>202</v>
+        <v>174</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
@@ -4613,10 +4627,10 @@
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>203</v>
+        <v>174</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>5</v>
@@ -4624,10 +4638,10 @@
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B207" s="12" t="s">
-        <v>204</v>
+        <v>174</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
@@ -4635,10 +4649,10 @@
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B208" s="12" t="s">
-        <v>205</v>
+        <v>174</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
@@ -4646,10 +4660,10 @@
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B209" s="12" t="s">
-        <v>206</v>
+        <v>174</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
@@ -4657,10 +4671,10 @@
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B210" s="12" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
@@ -4668,31 +4682,31 @@
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B211" s="12" t="s">
-        <v>208</v>
+        <v>174</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="14"/>
-      <c r="B212" s="13"/>
+      <c r="A212" s="16"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="14"/>
-      <c r="B213" s="13"/>
+      <c r="A213" s="16"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B214" s="12" t="s">
         <v>210</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>5</v>
@@ -4700,10 +4714,10 @@
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B215" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
@@ -4711,10 +4725,10 @@
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="B216" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
@@ -4722,10 +4736,10 @@
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B217" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
@@ -4733,10 +4747,10 @@
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B218" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
@@ -4744,10 +4758,10 @@
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B219" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
@@ -4755,10 +4769,10 @@
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B220" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="B220" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
@@ -4766,10 +4780,10 @@
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B221" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
@@ -4777,10 +4791,10 @@
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B222" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
@@ -4788,10 +4802,10 @@
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B223" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
@@ -4799,10 +4813,10 @@
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
@@ -4810,10 +4824,10 @@
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
@@ -4821,10 +4835,10 @@
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B226" s="12" t="s">
-        <v>222</v>
+        <v>210</v>
+      </c>
+      <c r="B226" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
@@ -4832,10 +4846,10 @@
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B227" s="12" t="s">
-        <v>223</v>
+        <v>210</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
@@ -4843,10 +4857,10 @@
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>224</v>
+        <v>210</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
@@ -4854,10 +4868,10 @@
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B229" s="12" t="s">
-        <v>225</v>
+        <v>210</v>
+      </c>
+      <c r="B229" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
@@ -4865,10 +4879,10 @@
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B230" s="12" t="s">
-        <v>226</v>
+        <v>210</v>
+      </c>
+      <c r="B230" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
@@ -4876,10 +4890,10 @@
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>227</v>
+        <v>210</v>
+      </c>
+      <c r="B231" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
@@ -4887,10 +4901,10 @@
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B232" s="12" t="s">
-        <v>228</v>
+        <v>210</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
@@ -4898,10 +4912,10 @@
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B233" s="12" t="s">
-        <v>229</v>
+        <v>210</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
@@ -4909,10 +4923,10 @@
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>230</v>
+        <v>210</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
@@ -4920,29 +4934,29 @@
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B235" s="12" t="s">
-        <v>231</v>
+        <v>210</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="13"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="13"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B238" s="12" t="s">
         <v>233</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4950,10 +4964,10 @@
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B239" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4961,10 +4975,10 @@
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4972,10 +4986,10 @@
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4983,10 +4997,10 @@
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
@@ -4994,10 +5008,10 @@
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -5005,10 +5019,10 @@
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B244" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -5016,10 +5030,10 @@
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -5027,10 +5041,10 @@
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B246" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -5038,10 +5052,10 @@
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -5049,10 +5063,10 @@
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -5060,10 +5074,10 @@
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B249" s="12" t="s">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -5071,10 +5085,10 @@
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>245</v>
+        <v>233</v>
+      </c>
+      <c r="B250" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -5082,10 +5096,10 @@
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B251" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -5093,10 +5107,10 @@
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B252" s="12" t="s">
-        <v>247</v>
+        <v>233</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -5104,10 +5118,10 @@
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B253" s="12" t="s">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="B253" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -5115,10 +5129,10 @@
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B254" s="12" t="s">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="B254" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -5126,10 +5140,10 @@
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B255" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -5137,10 +5151,10 @@
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B256" s="12" t="s">
-        <v>251</v>
+        <v>233</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -5148,10 +5162,10 @@
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -5159,10 +5173,10 @@
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B258" s="12" t="s">
-        <v>253</v>
+        <v>233</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -5170,10 +5184,10 @@
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B259" s="12" t="s">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -5181,10 +5195,10 @@
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B260" s="12" t="s">
-        <v>255</v>
+        <v>233</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -5192,10 +5206,10 @@
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B261" s="12" t="s">
-        <v>256</v>
+        <v>233</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -5203,10 +5217,10 @@
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B262" s="12" t="s">
-        <v>257</v>
+        <v>233</v>
+      </c>
+      <c r="B262" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -5214,10 +5228,10 @@
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B263" s="12" t="s">
-        <v>258</v>
+        <v>233</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -5225,10 +5239,10 @@
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>259</v>
+        <v>233</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -5236,10 +5250,10 @@
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B265" s="12" t="s">
-        <v>260</v>
+        <v>233</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -5247,10 +5261,10 @@
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B266" s="12" t="s">
-        <v>261</v>
+        <v>233</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -5258,10 +5272,10 @@
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B267" s="12" t="s">
-        <v>262</v>
+        <v>233</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -5269,10 +5283,10 @@
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B268" s="12" t="s">
-        <v>263</v>
+        <v>233</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -5280,10 +5294,10 @@
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B269" s="12" t="s">
-        <v>264</v>
+        <v>233</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -5291,10 +5305,10 @@
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B270" s="12" t="s">
-        <v>265</v>
+        <v>233</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -5302,10 +5316,10 @@
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B271" s="12" t="s">
-        <v>89</v>
+        <v>233</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>5</v>
@@ -5313,29 +5327,29 @@
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B272" s="12" t="s">
-        <v>266</v>
+        <v>233</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="13"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="13"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B275" s="12" t="s">
         <v>268</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -5343,10 +5357,10 @@
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B276" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -5354,10 +5368,10 @@
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B277" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -5365,10 +5379,10 @@
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -5376,10 +5390,10 @@
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B279" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="B279" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -5387,10 +5401,10 @@
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="B280" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -5398,10 +5412,10 @@
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B281" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
+      </c>
+      <c r="B281" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -5409,10 +5423,10 @@
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B282" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -5420,10 +5434,10 @@
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B283" s="12" t="s">
-        <v>276</v>
+        <v>268</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -5431,10 +5445,10 @@
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B284" s="12" t="s">
-        <v>277</v>
+        <v>268</v>
+      </c>
+      <c r="B284" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -5442,10 +5456,10 @@
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B285" s="12" t="s">
-        <v>278</v>
+        <v>268</v>
+      </c>
+      <c r="B285" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -5453,10 +5467,10 @@
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B286" s="12" t="s">
-        <v>279</v>
+        <v>268</v>
+      </c>
+      <c r="B286" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -5464,10 +5478,10 @@
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B287" s="12" t="s">
-        <v>280</v>
+        <v>268</v>
+      </c>
+      <c r="B287" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -5475,10 +5489,10 @@
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>281</v>
+        <v>268</v>
+      </c>
+      <c r="B288" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -5486,10 +5500,10 @@
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>282</v>
+        <v>268</v>
+      </c>
+      <c r="B289" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -5497,10 +5511,10 @@
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>283</v>
+        <v>268</v>
+      </c>
+      <c r="B290" s="14" t="s">
+        <v>284</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -5508,10 +5522,10 @@
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B291" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -5519,10 +5533,10 @@
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B292" s="12" t="s">
-        <v>285</v>
+        <v>268</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -5530,29 +5544,29 @@
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B293" s="12" t="s">
-        <v>286</v>
+        <v>268</v>
+      </c>
+      <c r="B293" s="14" t="s">
+        <v>287</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="13"/>
+      <c r="B294" s="15"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="13"/>
+      <c r="B295" s="15"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B296" s="12" t="s">
         <v>288</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -5560,10 +5574,10 @@
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B297" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -5571,10 +5585,10 @@
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B298" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
+      </c>
+      <c r="B298" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -5582,10 +5596,10 @@
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B299" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="B299" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -5593,10 +5607,10 @@
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B300" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="B300" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -5604,10 +5618,10 @@
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B301" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
+      </c>
+      <c r="B301" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -5615,10 +5629,10 @@
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B302" s="12" t="s">
-        <v>294</v>
+        <v>288</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -5626,10 +5640,10 @@
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B303" s="12" t="s">
-        <v>295</v>
+        <v>288</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -5637,10 +5651,10 @@
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B304" s="12" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -5648,10 +5662,10 @@
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B305" s="12" t="s">
-        <v>297</v>
+        <v>288</v>
+      </c>
+      <c r="B305" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -5659,10 +5673,10 @@
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B306" s="12" t="s">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -5670,10 +5684,10 @@
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B307" s="12" t="s">
-        <v>299</v>
+        <v>288</v>
+      </c>
+      <c r="B307" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -5681,10 +5695,10 @@
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B308" s="12" t="s">
-        <v>300</v>
+        <v>288</v>
+      </c>
+      <c r="B308" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -5692,10 +5706,10 @@
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B309" s="15" t="s">
-        <v>301</v>
+        <v>288</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -5703,10 +5717,10 @@
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B310" s="12" t="s">
-        <v>302</v>
+        <v>288</v>
+      </c>
+      <c r="B310" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5714,10 +5728,10 @@
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B311" s="12" t="s">
-        <v>303</v>
+        <v>288</v>
+      </c>
+      <c r="B311" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5725,10 +5739,10 @@
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B312" s="12" t="s">
-        <v>304</v>
+        <v>288</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5736,10 +5750,10 @@
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B313" s="12" t="s">
-        <v>305</v>
+        <v>288</v>
+      </c>
+      <c r="B313" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5747,10 +5761,10 @@
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B314" s="12" t="s">
-        <v>306</v>
+        <v>288</v>
+      </c>
+      <c r="B314" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5758,10 +5772,10 @@
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B315" s="12" t="s">
-        <v>307</v>
+        <v>288</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5769,10 +5783,10 @@
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B316" s="12" t="s">
-        <v>308</v>
+        <v>288</v>
+      </c>
+      <c r="B316" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5780,10 +5794,10 @@
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B317" s="12" t="s">
-        <v>309</v>
+        <v>288</v>
+      </c>
+      <c r="B317" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5791,10 +5805,10 @@
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B318" s="12" t="s">
-        <v>310</v>
+        <v>288</v>
+      </c>
+      <c r="B318" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5802,10 +5816,10 @@
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B319" s="12" t="s">
-        <v>311</v>
+        <v>288</v>
+      </c>
+      <c r="B319" s="14" t="s">
+        <v>312</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5813,10 +5827,10 @@
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B320" s="12" t="s">
-        <v>312</v>
+        <v>288</v>
+      </c>
+      <c r="B320" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5824,10 +5838,10 @@
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B321" s="12" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B321" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5835,10 +5849,10 @@
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B322" s="12" t="s">
-        <v>314</v>
+        <v>288</v>
+      </c>
+      <c r="B322" s="14" t="s">
+        <v>315</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5846,10 +5860,10 @@
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B323" s="12" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B323" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5857,10 +5871,10 @@
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B324" s="12" t="s">
-        <v>316</v>
+        <v>288</v>
+      </c>
+      <c r="B324" s="14" t="s">
+        <v>317</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5868,10 +5882,10 @@
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B325" s="12" t="s">
-        <v>317</v>
+        <v>288</v>
+      </c>
+      <c r="B325" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5879,10 +5893,10 @@
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B326" s="12" t="s">
-        <v>318</v>
+        <v>288</v>
+      </c>
+      <c r="B326" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5890,10 +5904,10 @@
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B327" s="12" t="s">
-        <v>319</v>
+        <v>288</v>
+      </c>
+      <c r="B327" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5901,10 +5915,10 @@
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B328" s="12" t="s">
-        <v>320</v>
+        <v>288</v>
+      </c>
+      <c r="B328" s="14" t="s">
+        <v>321</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5912,10 +5926,10 @@
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B329" s="12" t="s">
-        <v>321</v>
+        <v>288</v>
+      </c>
+      <c r="B329" s="14" t="s">
+        <v>322</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5923,10 +5937,10 @@
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B330" s="12" t="s">
-        <v>322</v>
+        <v>288</v>
+      </c>
+      <c r="B330" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5934,10 +5948,10 @@
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B331" s="12" t="s">
-        <v>323</v>
+        <v>288</v>
+      </c>
+      <c r="B331" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5945,10 +5959,10 @@
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B332" s="12" t="s">
-        <v>324</v>
+        <v>288</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>325</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5956,801 +5970,801 @@
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B333" s="12" t="s">
-        <v>325</v>
+        <v>288</v>
+      </c>
+      <c r="B333" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="13"/>
+      <c r="B334" s="15"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="13"/>
+      <c r="B335" s="15"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B336" s="12" t="s">
+      <c r="A336" s="16" t="s">
         <v>327</v>
       </c>
+      <c r="B336" s="14" t="s">
+        <v>328</v>
+      </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B337" s="12" t="s">
-        <v>328</v>
+      <c r="A337" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B337" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B338" s="12" t="s">
-        <v>329</v>
+      <c r="A338" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B338" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B339" s="12" t="s">
-        <v>330</v>
+      <c r="A339" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B339" s="14" t="s">
+        <v>331</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B340" s="12" t="s">
-        <v>331</v>
+      <c r="A340" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B340" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B341" s="12" t="s">
-        <v>332</v>
+      <c r="A341" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B341" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B342" s="12" t="s">
-        <v>333</v>
+      <c r="A342" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B342" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B343" s="12" t="s">
-        <v>334</v>
+      <c r="A343" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B343" s="14" t="s">
+        <v>335</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B344" s="15" t="s">
-        <v>335</v>
+      <c r="A344" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B344" s="17" t="s">
+        <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B345" s="12" t="s">
-        <v>336</v>
+      <c r="A345" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B345" s="14" t="s">
+        <v>337</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B346" s="12" t="s">
-        <v>337</v>
+      <c r="A346" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B346" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B347" s="12" t="s">
-        <v>338</v>
+      <c r="A347" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B347" s="14" t="s">
+        <v>339</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B348" s="12" t="s">
-        <v>339</v>
+      <c r="A348" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>340</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B349" s="12" t="s">
-        <v>340</v>
+      <c r="A349" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B349" s="14" t="s">
+        <v>341</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B350" s="12" t="s">
-        <v>341</v>
+      <c r="A350" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B350" s="14" t="s">
+        <v>342</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B351" s="12" t="s">
-        <v>342</v>
+      <c r="A351" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B351" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B352" s="12" t="s">
-        <v>343</v>
+      <c r="A352" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B352" s="14" t="s">
+        <v>344</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B353" s="12" t="s">
-        <v>344</v>
+      <c r="A353" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B353" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="13"/>
+      <c r="B354" s="15"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="13"/>
+      <c r="B355" s="15"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B356" s="12" t="s">
+      <c r="A356" s="16" t="s">
         <v>346</v>
       </c>
+      <c r="B356" s="14" t="s">
+        <v>347</v>
+      </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B357" s="12" t="s">
-        <v>347</v>
+      <c r="A357" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B357" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B358" s="12" t="s">
-        <v>348</v>
+      <c r="A358" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B358" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B359" s="12" t="s">
-        <v>349</v>
+      <c r="A359" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B359" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B360" s="12" t="s">
-        <v>350</v>
+      <c r="A360" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B360" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B361" s="12" t="s">
-        <v>351</v>
+      <c r="A361" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B361" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B362" s="12" t="s">
-        <v>352</v>
+      <c r="A362" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B362" s="14" t="s">
+        <v>353</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B363" s="12" t="s">
-        <v>353</v>
+      <c r="A363" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B363" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B364" s="12" t="s">
-        <v>354</v>
+      <c r="A364" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B365" s="12" t="s">
-        <v>355</v>
+      <c r="A365" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B365" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B366" s="12" t="s">
-        <v>356</v>
+      <c r="A366" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B367" s="12" t="s">
-        <v>357</v>
+      <c r="A367" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B367" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B368" s="12" t="s">
-        <v>358</v>
+      <c r="A368" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B368" s="14" t="s">
+        <v>359</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B369" s="12" t="s">
-        <v>359</v>
+      <c r="A369" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B369" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B370" s="12" t="s">
-        <v>360</v>
+      <c r="A370" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B370" s="14" t="s">
+        <v>361</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B371" s="12" t="s">
-        <v>361</v>
+      <c r="A371" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>362</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B372" s="12" t="s">
-        <v>362</v>
+      <c r="A372" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B373" s="12" t="s">
-        <v>363</v>
+      <c r="A373" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>364</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B374" s="12" t="s">
-        <v>364</v>
+      <c r="A374" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>365</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B375" s="12" t="s">
-        <v>365</v>
+      <c r="A375" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B375" s="14" t="s">
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B376" s="12" t="s">
-        <v>366</v>
+      <c r="A376" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B376" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B377" s="12" t="s">
-        <v>367</v>
+      <c r="A377" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B378" s="12" t="s">
-        <v>368</v>
+      <c r="A378" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B379" s="12" t="s">
-        <v>369</v>
+      <c r="A379" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B379" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B380" s="12" t="s">
-        <v>370</v>
+      <c r="A380" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B380" s="14" t="s">
+        <v>371</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B381" s="12" t="s">
-        <v>371</v>
+      <c r="A381" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B381" s="14" t="s">
+        <v>372</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B382" s="12" t="s">
-        <v>372</v>
+      <c r="A382" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B382" s="14" t="s">
+        <v>373</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B383" s="12" t="s">
-        <v>373</v>
+      <c r="A383" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B383" s="14" t="s">
+        <v>374</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B384" s="12" t="s">
-        <v>374</v>
+      <c r="A384" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B384" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B385" s="12" t="s">
-        <v>375</v>
+      <c r="A385" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B385" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B386" s="12" t="s">
-        <v>376</v>
+      <c r="A386" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B386" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B387" s="12" t="s">
-        <v>377</v>
+      <c r="A387" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B388" s="12" t="s">
-        <v>378</v>
+      <c r="A388" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B388" s="14" t="s">
+        <v>379</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B389" s="12" t="s">
-        <v>379</v>
+      <c r="A389" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B389" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B390" s="12" t="s">
-        <v>379</v>
+      <c r="A390" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B390" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B391" s="12" t="s">
-        <v>380</v>
+      <c r="A391" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B392" s="12" t="s">
-        <v>381</v>
+      <c r="A392" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B392" s="14" t="s">
+        <v>382</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B393" s="12" t="s">
-        <v>382</v>
+      <c r="A393" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B394" s="12" t="s">
-        <v>383</v>
+      <c r="A394" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>384</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B395" s="12" t="s">
-        <v>384</v>
+      <c r="A395" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B396" s="12" t="s">
-        <v>385</v>
+      <c r="A396" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B396" s="14" t="s">
+        <v>386</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B397" s="12" t="s">
-        <v>386</v>
+      <c r="A397" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B397" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B398" s="12" t="s">
-        <v>387</v>
+      <c r="A398" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B399" s="12" t="s">
-        <v>388</v>
+      <c r="A399" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>389</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="13"/>
+      <c r="B400" s="15"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="13"/>
+      <c r="B401" s="15"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B402" s="12" t="s">
+      <c r="A402" s="16" t="s">
         <v>390</v>
       </c>
+      <c r="B402" s="14" t="s">
+        <v>391</v>
+      </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B403" s="12" t="s">
-        <v>391</v>
+      <c r="A403" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B404" s="12" t="s">
-        <v>392</v>
+      <c r="A404" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B404" s="14" t="s">
+        <v>393</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B405" s="12" t="s">
-        <v>91</v>
+      <c r="A405" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B406" s="12" t="s">
-        <v>393</v>
+      <c r="A406" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B406" s="14" t="s">
+        <v>394</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B407" s="12" t="s">
-        <v>394</v>
+      <c r="A407" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="13"/>
+      <c r="B408" s="15"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="13"/>
+      <c r="B409" s="15"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B410" s="12" t="s">
         <v>396</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6758,10 +6772,10 @@
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B411" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6769,10 +6783,10 @@
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B412" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6780,10 +6794,10 @@
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B413" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6791,10 +6805,10 @@
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B414" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
+      </c>
+      <c r="B414" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6802,10 +6816,10 @@
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B415" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6813,10 +6827,10 @@
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B416" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6824,10 +6838,10 @@
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B417" s="12" t="s">
-        <v>275</v>
+        <v>396</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6835,10 +6849,10 @@
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B418" s="12" t="s">
-        <v>403</v>
+        <v>396</v>
+      </c>
+      <c r="B418" s="14" t="s">
+        <v>404</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6846,10 +6860,10 @@
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B419" s="12" t="s">
-        <v>404</v>
+        <v>396</v>
+      </c>
+      <c r="B419" s="14" t="s">
+        <v>405</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6857,10 +6871,10 @@
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B420" s="12" t="s">
-        <v>405</v>
+        <v>396</v>
+      </c>
+      <c r="B420" s="14" t="s">
+        <v>406</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6868,10 +6882,10 @@
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B421" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="B421" s="14" t="s">
+        <v>407</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6879,10 +6893,10 @@
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B422" s="12" t="s">
-        <v>407</v>
+        <v>396</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>408</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6890,10 +6904,10 @@
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B423" s="12" t="s">
-        <v>408</v>
+        <v>396</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6901,10 +6915,10 @@
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B424" s="12" t="s">
-        <v>409</v>
+        <v>396</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>410</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6912,10 +6926,10 @@
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B425" s="12" t="s">
-        <v>410</v>
+        <v>396</v>
+      </c>
+      <c r="B425" s="14" t="s">
+        <v>411</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6923,10 +6937,10 @@
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B426" s="12" t="s">
-        <v>411</v>
+        <v>396</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>412</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6934,10 +6948,10 @@
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B427" s="12" t="s">
-        <v>412</v>
+        <v>396</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>413</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6945,10 +6959,10 @@
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B428" s="12" t="s">
-        <v>413</v>
+        <v>396</v>
+      </c>
+      <c r="B428" s="14" t="s">
+        <v>414</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6956,10 +6970,10 @@
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B429" s="12" t="s">
-        <v>414</v>
+        <v>396</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>415</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6967,10 +6981,10 @@
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B430" s="12" t="s">
-        <v>415</v>
+        <v>396</v>
+      </c>
+      <c r="B430" s="14" t="s">
+        <v>416</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6978,10 +6992,10 @@
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B431" s="12" t="s">
-        <v>416</v>
+        <v>396</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>417</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6989,10 +7003,10 @@
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B432" s="12" t="s">
-        <v>417</v>
+        <v>396</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>418</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -7000,10 +7014,10 @@
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B433" s="12" t="s">
-        <v>418</v>
+        <v>396</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -7011,10 +7025,10 @@
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B434" s="12" t="s">
-        <v>419</v>
+        <v>396</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>420</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -7022,10 +7036,10 @@
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B435" s="12" t="s">
-        <v>420</v>
+        <v>396</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>421</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -7033,10 +7047,10 @@
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B436" s="12" t="s">
-        <v>421</v>
+        <v>396</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>422</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -7044,10 +7058,10 @@
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B437" s="12" t="s">
-        <v>422</v>
+        <v>396</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -7055,10 +7069,10 @@
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B438" s="12" t="s">
-        <v>423</v>
+        <v>396</v>
+      </c>
+      <c r="B438" s="14" t="s">
+        <v>424</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -7066,10 +7080,10 @@
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B439" s="12" t="s">
-        <v>424</v>
+        <v>396</v>
+      </c>
+      <c r="B439" s="14" t="s">
+        <v>425</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -7077,10 +7091,10 @@
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B440" s="12" t="s">
-        <v>425</v>
+        <v>396</v>
+      </c>
+      <c r="B440" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -7088,10 +7102,10 @@
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B441" s="12" t="s">
-        <v>426</v>
+        <v>396</v>
+      </c>
+      <c r="B441" s="14" t="s">
+        <v>427</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -7099,10 +7113,10 @@
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B442" s="12" t="s">
-        <v>427</v>
+        <v>396</v>
+      </c>
+      <c r="B442" s="14" t="s">
+        <v>428</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -7110,10 +7124,10 @@
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B443" s="12" t="s">
-        <v>428</v>
+        <v>396</v>
+      </c>
+      <c r="B443" s="14" t="s">
+        <v>429</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -7121,10 +7135,10 @@
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B444" s="12" t="s">
-        <v>429</v>
+        <v>396</v>
+      </c>
+      <c r="B444" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -7132,10 +7146,10 @@
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B445" s="12" t="s">
-        <v>430</v>
+        <v>396</v>
+      </c>
+      <c r="B445" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -7143,10 +7157,10 @@
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B446" s="12" t="s">
-        <v>431</v>
+        <v>396</v>
+      </c>
+      <c r="B446" s="14" t="s">
+        <v>432</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -7154,10 +7168,10 @@
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B447" s="12" t="s">
-        <v>432</v>
+        <v>396</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -7165,10 +7179,10 @@
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B448" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -7176,10 +7190,10 @@
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B449" s="12" t="s">
-        <v>434</v>
+        <v>396</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -7187,10 +7201,10 @@
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B450" s="12" t="s">
-        <v>435</v>
+        <v>396</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -7198,10 +7212,10 @@
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B451" s="12" t="s">
-        <v>436</v>
+        <v>396</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>437</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -7209,10 +7223,10 @@
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B452" s="12" t="s">
-        <v>437</v>
+        <v>396</v>
+      </c>
+      <c r="B452" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -7220,10 +7234,10 @@
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B453" s="12" t="s">
-        <v>438</v>
+        <v>396</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -7231,10 +7245,10 @@
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B454" s="12" t="s">
-        <v>439</v>
+        <v>396</v>
+      </c>
+      <c r="B454" s="14" t="s">
+        <v>440</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -7242,10 +7256,10 @@
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B455" s="12" t="s">
-        <v>440</v>
+        <v>396</v>
+      </c>
+      <c r="B455" s="14" t="s">
+        <v>441</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -7253,10 +7267,10 @@
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B456" s="12" t="s">
-        <v>441</v>
+        <v>396</v>
+      </c>
+      <c r="B456" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -7264,10 +7278,10 @@
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B457" s="12" t="s">
-        <v>442</v>
+        <v>396</v>
+      </c>
+      <c r="B457" s="14" t="s">
+        <v>443</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -7275,10 +7289,10 @@
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B458" s="12" t="s">
-        <v>443</v>
+        <v>396</v>
+      </c>
+      <c r="B458" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -7286,10 +7300,10 @@
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B459" s="12" t="s">
-        <v>444</v>
+        <v>396</v>
+      </c>
+      <c r="B459" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -7297,10 +7311,10 @@
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B460" s="12" t="s">
-        <v>445</v>
+        <v>396</v>
+      </c>
+      <c r="B460" s="14" t="s">
+        <v>446</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -7308,10 +7322,10 @@
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B461" s="12" t="s">
-        <v>446</v>
+        <v>396</v>
+      </c>
+      <c r="B461" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -7319,10 +7333,10 @@
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B462" s="12" t="s">
-        <v>447</v>
+        <v>396</v>
+      </c>
+      <c r="B462" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -7330,10 +7344,10 @@
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B463" s="12" t="s">
-        <v>448</v>
+        <v>396</v>
+      </c>
+      <c r="B463" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -7341,10 +7355,10 @@
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B464" s="12" t="s">
-        <v>449</v>
+        <v>396</v>
+      </c>
+      <c r="B464" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -7352,10 +7366,10 @@
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B465" s="12" t="s">
-        <v>450</v>
+        <v>396</v>
+      </c>
+      <c r="B465" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -7363,10 +7377,10 @@
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B466" s="12" t="s">
-        <v>451</v>
+        <v>396</v>
+      </c>
+      <c r="B466" s="14" t="s">
+        <v>452</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -7374,10 +7388,10 @@
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B467" s="12" t="s">
-        <v>452</v>
+        <v>396</v>
+      </c>
+      <c r="B467" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -7385,10 +7399,10 @@
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B468" s="12" t="s">
-        <v>453</v>
+        <v>396</v>
+      </c>
+      <c r="B468" s="14" t="s">
+        <v>454</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -7396,30 +7410,30 @@
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B469" s="12" t="s">
-        <v>454</v>
+        <v>396</v>
+      </c>
+      <c r="B469" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="13"/>
+      <c r="B470" s="15"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="14"/>
-      <c r="B471" s="13"/>
+      <c r="A471" s="16"/>
+      <c r="B471" s="15"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B472" s="12" t="s">
         <v>456</v>
+      </c>
+      <c r="B472" s="14" t="s">
+        <v>457</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -7427,10 +7441,10 @@
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B473" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="B473" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -7438,10 +7452,10 @@
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B474" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
+      </c>
+      <c r="B474" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -7449,10 +7463,10 @@
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B475" s="12" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -7460,10 +7474,10 @@
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B476" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
+      </c>
+      <c r="B476" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -7471,10 +7485,10 @@
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B477" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
+      </c>
+      <c r="B477" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -7482,10 +7496,10 @@
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B478" s="12" t="s">
-        <v>462</v>
+        <v>456</v>
+      </c>
+      <c r="B478" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -7493,10 +7507,10 @@
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B479" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
+      </c>
+      <c r="B479" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -7504,10 +7518,10 @@
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B480" s="12" t="s">
-        <v>464</v>
+        <v>456</v>
+      </c>
+      <c r="B480" s="14" t="s">
+        <v>465</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -7515,10 +7529,10 @@
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B481" s="12" t="s">
-        <v>465</v>
+        <v>456</v>
+      </c>
+      <c r="B481" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/450_Questions/450Question.xlsx
+++ b/450_Questions/450Question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions By Love Babbar:</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Try Again</t>
   </si>
   <si>
     <t>Best time to buy and Sell stock</t>
@@ -1506,6 +1509,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1528,17 +1547,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,6 +1572,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,7 +1617,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1592,7 +1625,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,37 +1647,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1671,7 +1674,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,7 +1704,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,31 +1746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,31 +1758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,7 +1782,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,31 +1812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,31 +1830,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,11 +1868,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,6 +1914,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1913,15 +1951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1936,36 +1965,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1983,132 +1986,132 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2137,6 +2140,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2466,8 +2473,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="3"/>
@@ -2659,44 +2666,44 @@
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
+      <c r="C21" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
+      <c r="B22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>26</v>
+      <c r="B23" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -2706,8 +2713,8 @@
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>27</v>
+      <c r="B24" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -2717,8 +2724,8 @@
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>28</v>
+      <c r="B25" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
@@ -2728,8 +2735,8 @@
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>29</v>
+      <c r="B26" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
@@ -2739,8 +2746,8 @@
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>30</v>
+      <c r="B27" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
@@ -2750,8 +2757,8 @@
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>31</v>
+      <c r="B28" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
@@ -2761,8 +2768,8 @@
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>32</v>
+      <c r="B29" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>5</v>
@@ -2772,8 +2779,8 @@
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>33</v>
+      <c r="B30" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
@@ -2783,8 +2790,8 @@
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>34</v>
+      <c r="B31" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
@@ -2794,8 +2801,8 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>35</v>
+      <c r="B32" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -2805,8 +2812,8 @@
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>36</v>
+      <c r="B33" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
@@ -2816,8 +2823,8 @@
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>37</v>
+      <c r="B34" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
@@ -2827,8 +2834,8 @@
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>38</v>
+      <c r="B35" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
@@ -2838,8 +2845,8 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>39</v>
+      <c r="B36" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
@@ -2849,8 +2856,8 @@
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>40</v>
+      <c r="B37" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
@@ -2860,8 +2867,8 @@
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>41</v>
+      <c r="B38" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -2871,8 +2878,8 @@
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>42</v>
+      <c r="B39" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
@@ -2882,8 +2889,8 @@
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>43</v>
+      <c r="B40" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
@@ -2893,131 +2900,131 @@
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>44</v>
+      <c r="B41" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="10"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="18" t="s">
         <v>46</v>
       </c>
+      <c r="B44" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>47</v>
+      <c r="A45" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>48</v>
+      <c r="A46" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>49</v>
+      <c r="A47" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>50</v>
+      <c r="A48" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>51</v>
+      <c r="A49" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>52</v>
+      <c r="A50" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>53</v>
+      <c r="A51" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>54</v>
+      <c r="A52" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>55</v>
+      <c r="A53" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
@@ -3025,15 +3032,15 @@
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="10"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="14" t="s">
         <v>57</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>5</v>
@@ -3041,10 +3048,10 @@
     </row>
     <row r="57" ht="21" spans="1:3">
       <c r="A57" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>5</v>
@@ -3052,10 +3059,10 @@
     </row>
     <row r="58" ht="21" spans="1:3">
       <c r="A58" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>5</v>
@@ -3063,10 +3070,10 @@
     </row>
     <row r="59" ht="21" spans="1:3">
       <c r="A59" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>5</v>
@@ -3074,10 +3081,10 @@
     </row>
     <row r="60" ht="21" spans="1:3">
       <c r="A60" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>5</v>
@@ -3085,10 +3092,10 @@
     </row>
     <row r="61" ht="21" spans="1:3">
       <c r="A61" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>5</v>
@@ -3096,10 +3103,10 @@
     </row>
     <row r="62" ht="21" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>5</v>
@@ -3107,10 +3114,10 @@
     </row>
     <row r="63" ht="21" spans="1:3">
       <c r="A63" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>5</v>
@@ -3118,10 +3125,10 @@
     </row>
     <row r="64" ht="21" spans="1:3">
       <c r="A64" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>5</v>
@@ -3129,10 +3136,10 @@
     </row>
     <row r="65" ht="21" spans="1:3">
       <c r="A65" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>5</v>
@@ -3140,10 +3147,10 @@
     </row>
     <row r="66" ht="21" spans="1:3">
       <c r="A66" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>5</v>
@@ -3151,10 +3158,10 @@
     </row>
     <row r="67" ht="21" spans="1:3">
       <c r="A67" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
@@ -3162,10 +3169,10 @@
     </row>
     <row r="68" ht="21" spans="1:3">
       <c r="A68" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>5</v>
@@ -3173,10 +3180,10 @@
     </row>
     <row r="69" ht="21" spans="1:3">
       <c r="A69" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>5</v>
@@ -3184,10 +3191,10 @@
     </row>
     <row r="70" ht="21" spans="1:3">
       <c r="A70" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>5</v>
@@ -3195,10 +3202,10 @@
     </row>
     <row r="71" ht="21" spans="1:3">
       <c r="A71" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>5</v>
@@ -3206,10 +3213,10 @@
     </row>
     <row r="72" ht="21" spans="1:3">
       <c r="A72" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>5</v>
@@ -3217,10 +3224,10 @@
     </row>
     <row r="73" ht="21" spans="1:3">
       <c r="A73" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>5</v>
@@ -3228,10 +3235,10 @@
     </row>
     <row r="74" ht="21" spans="1:3">
       <c r="A74" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>5</v>
@@ -3239,10 +3246,10 @@
     </row>
     <row r="75" ht="21" spans="1:3">
       <c r="A75" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>5</v>
@@ -3250,10 +3257,10 @@
     </row>
     <row r="76" ht="21" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>5</v>
@@ -3261,10 +3268,10 @@
     </row>
     <row r="77" ht="21" spans="1:3">
       <c r="A77" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>5</v>
@@ -3272,10 +3279,10 @@
     </row>
     <row r="78" ht="21" spans="1:3">
       <c r="A78" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>5</v>
@@ -3283,10 +3290,10 @@
     </row>
     <row r="79" ht="21" spans="1:3">
       <c r="A79" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>5</v>
@@ -3294,10 +3301,10 @@
     </row>
     <row r="80" ht="21" spans="1:3">
       <c r="A80" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>5</v>
@@ -3305,10 +3312,10 @@
     </row>
     <row r="81" ht="21" spans="1:3">
       <c r="A81" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>5</v>
@@ -3316,10 +3323,10 @@
     </row>
     <row r="82" ht="21" spans="1:3">
       <c r="A82" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>5</v>
@@ -3327,10 +3334,10 @@
     </row>
     <row r="83" ht="21" spans="1:3">
       <c r="A83" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>84</v>
+        <v>57</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
@@ -3338,10 +3345,10 @@
     </row>
     <row r="84" ht="21" spans="1:3">
       <c r="A84" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>5</v>
@@ -3349,10 +3356,10 @@
     </row>
     <row r="85" ht="21" spans="1:3">
       <c r="A85" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>5</v>
@@ -3360,10 +3367,10 @@
     </row>
     <row r="86" ht="21" spans="1:3">
       <c r="A86" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>5</v>
@@ -3371,10 +3378,10 @@
     </row>
     <row r="87" ht="21" spans="1:3">
       <c r="A87" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>88</v>
+        <v>57</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>5</v>
@@ -3382,10 +3389,10 @@
     </row>
     <row r="88" ht="21" spans="1:3">
       <c r="A88" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
@@ -3393,10 +3400,10 @@
     </row>
     <row r="89" ht="21" spans="1:3">
       <c r="A89" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>5</v>
@@ -3404,10 +3411,10 @@
     </row>
     <row r="90" ht="21" spans="1:3">
       <c r="A90" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>5</v>
@@ -3415,10 +3422,10 @@
     </row>
     <row r="91" ht="21" spans="1:3">
       <c r="A91" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>92</v>
+        <v>57</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>5</v>
@@ -3426,10 +3433,10 @@
     </row>
     <row r="92" ht="21" spans="1:3">
       <c r="A92" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>93</v>
+        <v>57</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>5</v>
@@ -3437,10 +3444,10 @@
     </row>
     <row r="93" ht="21" spans="1:3">
       <c r="A93" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>94</v>
+        <v>57</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>5</v>
@@ -3448,10 +3455,10 @@
     </row>
     <row r="94" ht="21" spans="1:3">
       <c r="A94" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>95</v>
+        <v>57</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>5</v>
@@ -3459,10 +3466,10 @@
     </row>
     <row r="95" ht="21" spans="1:3">
       <c r="A95" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>96</v>
+        <v>57</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>5</v>
@@ -3470,10 +3477,10 @@
     </row>
     <row r="96" ht="21" spans="1:3">
       <c r="A96" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>97</v>
+        <v>57</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>5</v>
@@ -3481,10 +3488,10 @@
     </row>
     <row r="97" ht="21" spans="1:3">
       <c r="A97" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>98</v>
+        <v>57</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>5</v>
@@ -3492,26 +3499,26 @@
     </row>
     <row r="98" ht="21" spans="1:3">
       <c r="A98" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="16"/>
-      <c r="B100" s="15"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="14" t="s">
         <v>101</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>5</v>
@@ -3519,10 +3526,10 @@
     </row>
     <row r="102" ht="21" spans="1:3">
       <c r="A102" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>5</v>
@@ -3530,10 +3537,10 @@
     </row>
     <row r="103" ht="21" spans="1:3">
       <c r="A103" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>5</v>
@@ -3541,10 +3548,10 @@
     </row>
     <row r="104" ht="21" spans="1:3">
       <c r="A104" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>5</v>
@@ -3552,10 +3559,10 @@
     </row>
     <row r="105" ht="21" spans="1:3">
       <c r="A105" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>5</v>
@@ -3563,10 +3570,10 @@
     </row>
     <row r="106" ht="21" spans="1:3">
       <c r="A106" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>5</v>
@@ -3574,10 +3581,10 @@
     </row>
     <row r="107" ht="21" spans="1:3">
       <c r="A107" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>5</v>
@@ -3585,10 +3592,10 @@
     </row>
     <row r="108" ht="21" spans="1:3">
       <c r="A108" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>5</v>
@@ -3596,10 +3603,10 @@
     </row>
     <row r="109" ht="21" spans="1:3">
       <c r="A109" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>5</v>
@@ -3607,10 +3614,10 @@
     </row>
     <row r="110" ht="21" spans="1:3">
       <c r="A110" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>5</v>
@@ -3618,10 +3625,10 @@
     </row>
     <row r="111" ht="21" spans="1:3">
       <c r="A111" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>5</v>
@@ -3629,10 +3636,10 @@
     </row>
     <row r="112" ht="21" spans="1:3">
       <c r="A112" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>5</v>
@@ -3640,10 +3647,10 @@
     </row>
     <row r="113" ht="21" spans="1:3">
       <c r="A113" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>5</v>
@@ -3651,10 +3658,10 @@
     </row>
     <row r="114" ht="21" spans="1:3">
       <c r="A114" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>5</v>
@@ -3662,10 +3669,10 @@
     </row>
     <row r="115" ht="21" spans="1:3">
       <c r="A115" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>5</v>
@@ -3673,10 +3680,10 @@
     </row>
     <row r="116" ht="21" spans="1:3">
       <c r="A116" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>5</v>
@@ -3684,10 +3691,10 @@
     </row>
     <row r="117" ht="21" spans="1:3">
       <c r="A117" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>117</v>
+        <v>101</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>5</v>
@@ -3695,10 +3702,10 @@
     </row>
     <row r="118" ht="21" spans="1:3">
       <c r="A118" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>118</v>
+        <v>101</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>5</v>
@@ -3706,10 +3713,10 @@
     </row>
     <row r="119" ht="21" spans="1:3">
       <c r="A119" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>119</v>
+        <v>101</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>5</v>
@@ -3717,10 +3724,10 @@
     </row>
     <row r="120" ht="21" spans="1:3">
       <c r="A120" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>5</v>
@@ -3728,10 +3735,10 @@
     </row>
     <row r="121" ht="21" spans="1:3">
       <c r="A121" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>5</v>
@@ -3739,10 +3746,10 @@
     </row>
     <row r="122" ht="21" spans="1:3">
       <c r="A122" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>122</v>
+        <v>101</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>5</v>
@@ -3750,10 +3757,10 @@
     </row>
     <row r="123" ht="21" spans="1:3">
       <c r="A123" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>5</v>
@@ -3761,10 +3768,10 @@
     </row>
     <row r="124" ht="21" spans="1:3">
       <c r="A124" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>5</v>
@@ -3772,10 +3779,10 @@
     </row>
     <row r="125" ht="21" spans="1:3">
       <c r="A125" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>125</v>
+        <v>101</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>5</v>
@@ -3783,10 +3790,10 @@
     </row>
     <row r="126" ht="21" spans="1:3">
       <c r="A126" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>5</v>
@@ -3794,10 +3801,10 @@
     </row>
     <row r="127" ht="21" spans="1:3">
       <c r="A127" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>127</v>
+        <v>101</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>5</v>
@@ -3805,10 +3812,10 @@
     </row>
     <row r="128" ht="21" spans="1:3">
       <c r="A128" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>5</v>
@@ -3816,10 +3823,10 @@
     </row>
     <row r="129" ht="21" spans="1:3">
       <c r="A129" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>5</v>
@@ -3827,10 +3834,10 @@
     </row>
     <row r="130" ht="21" spans="1:3">
       <c r="A130" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>130</v>
+        <v>101</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>5</v>
@@ -3838,10 +3845,10 @@
     </row>
     <row r="131" ht="21" spans="1:3">
       <c r="A131" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>131</v>
+        <v>101</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>5</v>
@@ -3849,10 +3856,10 @@
     </row>
     <row r="132" ht="21" spans="1:3">
       <c r="A132" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>132</v>
+        <v>101</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>5</v>
@@ -3860,10 +3867,10 @@
     </row>
     <row r="133" ht="21" spans="1:3">
       <c r="A133" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>5</v>
@@ -3871,10 +3878,10 @@
     </row>
     <row r="134" ht="21" spans="1:3">
       <c r="A134" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>134</v>
+        <v>101</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>5</v>
@@ -3882,10 +3889,10 @@
     </row>
     <row r="135" ht="21" spans="1:3">
       <c r="A135" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>5</v>
@@ -3893,425 +3900,425 @@
     </row>
     <row r="136" ht="21" spans="1:3">
       <c r="A136" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>136</v>
+        <v>101</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="15"/>
+      <c r="B138" s="17"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" s="14" t="s">
+      <c r="A139" s="18" t="s">
         <v>138</v>
       </c>
+      <c r="B139" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="C139" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>139</v>
+      <c r="A140" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>140</v>
+      <c r="A141" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>141</v>
+      <c r="A142" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>142</v>
+      <c r="A143" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>143</v>
+      <c r="A144" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>144</v>
+      <c r="A145" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>145</v>
+      <c r="A146" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>146</v>
+      <c r="A147" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>147</v>
+      <c r="A148" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>148</v>
+      <c r="A149" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>149</v>
+      <c r="A150" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>150</v>
+      <c r="A151" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>151</v>
+      <c r="A152" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>152</v>
+      <c r="A153" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>153</v>
+      <c r="A154" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>154</v>
+      <c r="A155" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>155</v>
+      <c r="A156" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>156</v>
+      <c r="A157" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>157</v>
+      <c r="A158" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>158</v>
+      <c r="A159" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>159</v>
+      <c r="A160" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>160</v>
+      <c r="A161" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>161</v>
+      <c r="A162" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>162</v>
+      <c r="A163" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>163</v>
+      <c r="A164" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>164</v>
+      <c r="A165" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>165</v>
+      <c r="A166" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>166</v>
+      <c r="A167" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>167</v>
+      <c r="A168" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>168</v>
+      <c r="A169" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>169</v>
+      <c r="A170" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>170</v>
+      <c r="A171" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>171</v>
+      <c r="A172" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>172</v>
+      <c r="A173" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>173</v>
+      <c r="A174" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="15"/>
+      <c r="B176" s="17"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" s="14" t="s">
         <v>175</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>5</v>
@@ -4319,10 +4326,10 @@
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>5</v>
@@ -4330,10 +4337,10 @@
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>5</v>
@@ -4341,10 +4348,10 @@
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>5</v>
@@ -4352,10 +4359,10 @@
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>5</v>
@@ -4363,10 +4370,10 @@
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>5</v>
@@ -4374,10 +4381,10 @@
     </row>
     <row r="183" ht="21" spans="1:3">
       <c r="A183" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>5</v>
@@ -4385,10 +4392,10 @@
     </row>
     <row r="184" ht="21" spans="1:3">
       <c r="A184" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>5</v>
@@ -4396,10 +4403,10 @@
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>5</v>
@@ -4407,10 +4414,10 @@
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>184</v>
+        <v>175</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>5</v>
@@ -4418,10 +4425,10 @@
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>5</v>
@@ -4429,10 +4436,10 @@
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>5</v>
@@ -4440,10 +4447,10 @@
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>5</v>
@@ -4451,10 +4458,10 @@
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>5</v>
@@ -4462,10 +4469,10 @@
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>189</v>
+        <v>175</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>5</v>
@@ -4473,10 +4480,10 @@
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>190</v>
+        <v>175</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>5</v>
@@ -4484,10 +4491,10 @@
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>191</v>
+        <v>175</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>5</v>
@@ -4495,10 +4502,10 @@
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>192</v>
+        <v>175</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>5</v>
@@ -4506,10 +4513,10 @@
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>5</v>
@@ -4517,10 +4524,10 @@
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>194</v>
+        <v>175</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>5</v>
@@ -4528,10 +4535,10 @@
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>195</v>
+        <v>175</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>5</v>
@@ -4539,10 +4546,10 @@
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>196</v>
+        <v>175</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>5</v>
@@ -4550,10 +4557,10 @@
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>197</v>
+        <v>175</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>5</v>
@@ -4561,10 +4568,10 @@
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>198</v>
+        <v>175</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>5</v>
@@ -4572,10 +4579,10 @@
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
@@ -4583,10 +4590,10 @@
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>5</v>
@@ -4594,10 +4601,10 @@
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>201</v>
+        <v>175</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>5</v>
@@ -4605,10 +4612,10 @@
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>202</v>
+        <v>175</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>5</v>
@@ -4616,10 +4623,10 @@
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B205" s="14" t="s">
-        <v>203</v>
+        <v>175</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
@@ -4627,10 +4634,10 @@
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B206" s="14" t="s">
-        <v>204</v>
+        <v>175</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>5</v>
@@ -4638,10 +4645,10 @@
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>205</v>
+        <v>175</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
@@ -4649,10 +4656,10 @@
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B208" s="14" t="s">
-        <v>206</v>
+        <v>175</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
@@ -4660,10 +4667,10 @@
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B209" s="14" t="s">
-        <v>207</v>
+        <v>175</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
@@ -4671,10 +4678,10 @@
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>208</v>
+        <v>175</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
@@ -4682,31 +4689,31 @@
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B211" s="14" t="s">
-        <v>209</v>
+        <v>175</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="16"/>
-      <c r="B212" s="15"/>
+      <c r="A212" s="18"/>
+      <c r="B212" s="17"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="16"/>
-      <c r="B213" s="15"/>
+      <c r="A213" s="18"/>
+      <c r="B213" s="17"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B214" s="14" t="s">
         <v>211</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>5</v>
@@ -4714,10 +4721,10 @@
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B215" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
@@ -4725,10 +4732,10 @@
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B216" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
@@ -4736,10 +4743,10 @@
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B217" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
@@ -4747,10 +4754,10 @@
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B218" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
@@ -4758,10 +4765,10 @@
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B219" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
@@ -4769,10 +4776,10 @@
     </row>
     <row r="220" ht="21" spans="1:3">
       <c r="A220" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B220" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
@@ -4780,10 +4787,10 @@
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B221" s="14" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
@@ -4791,10 +4798,10 @@
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B222" s="14" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
@@ -4802,10 +4809,10 @@
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B223" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
@@ -4813,10 +4820,10 @@
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B224" s="14" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
@@ -4824,10 +4831,10 @@
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B225" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
@@ -4835,10 +4842,10 @@
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>223</v>
+        <v>211</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
@@ -4846,10 +4853,10 @@
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B227" s="14" t="s">
-        <v>224</v>
+        <v>211</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
@@ -4857,10 +4864,10 @@
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B228" s="14" t="s">
-        <v>225</v>
+        <v>211</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
@@ -4868,10 +4875,10 @@
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B229" s="14" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
@@ -4879,10 +4886,10 @@
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>227</v>
+        <v>211</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
@@ -4890,10 +4897,10 @@
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B231" s="14" t="s">
-        <v>228</v>
+        <v>211</v>
+      </c>
+      <c r="B231" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
@@ -4901,10 +4908,10 @@
     </row>
     <row r="232" ht="21" spans="1:3">
       <c r="A232" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B232" s="14" t="s">
-        <v>229</v>
+        <v>211</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
@@ -4912,10 +4919,10 @@
     </row>
     <row r="233" ht="21" spans="1:3">
       <c r="A233" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>230</v>
+        <v>211</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
@@ -4923,10 +4930,10 @@
     </row>
     <row r="234" ht="21" spans="1:3">
       <c r="A234" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B234" s="14" t="s">
-        <v>231</v>
+        <v>211</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
@@ -4934,29 +4941,29 @@
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B235" s="14" t="s">
-        <v>232</v>
+        <v>211</v>
+      </c>
+      <c r="B235" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="15"/>
+      <c r="B236" s="17"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="15"/>
+      <c r="B237" s="17"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B238" s="14" t="s">
         <v>234</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4964,10 +4971,10 @@
     </row>
     <row r="239" ht="21" spans="1:3">
       <c r="A239" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B239" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4975,10 +4982,10 @@
     </row>
     <row r="240" ht="21" spans="1:3">
       <c r="A240" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B240" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="B240" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4986,10 +4993,10 @@
     </row>
     <row r="241" ht="21" spans="1:3">
       <c r="A241" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B241" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4997,10 +5004,10 @@
     </row>
     <row r="242" ht="21" spans="1:3">
       <c r="A242" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B242" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
@@ -5008,10 +5015,10 @@
     </row>
     <row r="243" ht="21" spans="1:3">
       <c r="A243" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -5019,10 +5026,10 @@
     </row>
     <row r="244" ht="21" spans="1:3">
       <c r="A244" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>240</v>
+        <v>234</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -5030,10 +5037,10 @@
     </row>
     <row r="245" ht="21" spans="1:3">
       <c r="A245" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B245" s="14" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -5041,10 +5048,10 @@
     </row>
     <row r="246" ht="21" spans="1:3">
       <c r="A246" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B246" s="14" t="s">
-        <v>242</v>
+        <v>234</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -5052,10 +5059,10 @@
     </row>
     <row r="247" ht="21" spans="1:3">
       <c r="A247" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B247" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -5063,10 +5070,10 @@
     </row>
     <row r="248" ht="21" spans="1:3">
       <c r="A248" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B248" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -5074,10 +5081,10 @@
     </row>
     <row r="249" ht="21" spans="1:3">
       <c r="A249" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B249" s="14" t="s">
-        <v>245</v>
+        <v>234</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -5085,10 +5092,10 @@
     </row>
     <row r="250" ht="21" spans="1:3">
       <c r="A250" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B250" s="14" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -5096,10 +5103,10 @@
     </row>
     <row r="251" ht="21" spans="1:3">
       <c r="A251" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B251" s="14" t="s">
-        <v>247</v>
+        <v>234</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -5107,10 +5114,10 @@
     </row>
     <row r="252" ht="21" spans="1:3">
       <c r="A252" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B252" s="14" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -5118,10 +5125,10 @@
     </row>
     <row r="253" ht="21" spans="1:3">
       <c r="A253" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>249</v>
+        <v>234</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -5129,10 +5136,10 @@
     </row>
     <row r="254" ht="21" spans="1:3">
       <c r="A254" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B254" s="14" t="s">
-        <v>250</v>
+        <v>234</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -5140,10 +5147,10 @@
     </row>
     <row r="255" ht="21" spans="1:3">
       <c r="A255" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B255" s="14" t="s">
-        <v>251</v>
+        <v>234</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -5151,10 +5158,10 @@
     </row>
     <row r="256" ht="21" spans="1:3">
       <c r="A256" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B256" s="14" t="s">
-        <v>252</v>
+        <v>234</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -5162,10 +5169,10 @@
     </row>
     <row r="257" ht="21" spans="1:3">
       <c r="A257" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B257" s="14" t="s">
-        <v>253</v>
+        <v>234</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -5173,10 +5180,10 @@
     </row>
     <row r="258" ht="21" spans="1:3">
       <c r="A258" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B258" s="14" t="s">
-        <v>254</v>
+        <v>234</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -5184,10 +5191,10 @@
     </row>
     <row r="259" ht="21" spans="1:3">
       <c r="A259" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B259" s="14" t="s">
-        <v>255</v>
+        <v>234</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -5195,10 +5202,10 @@
     </row>
     <row r="260" ht="21" spans="1:3">
       <c r="A260" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B260" s="14" t="s">
-        <v>256</v>
+        <v>234</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -5206,10 +5213,10 @@
     </row>
     <row r="261" ht="21" spans="1:3">
       <c r="A261" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B261" s="14" t="s">
-        <v>257</v>
+        <v>234</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -5217,10 +5224,10 @@
     </row>
     <row r="262" ht="21" spans="1:3">
       <c r="A262" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B262" s="14" t="s">
-        <v>258</v>
+        <v>234</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -5228,10 +5235,10 @@
     </row>
     <row r="263" ht="21" spans="1:3">
       <c r="A263" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B263" s="14" t="s">
-        <v>259</v>
+        <v>234</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -5239,10 +5246,10 @@
     </row>
     <row r="264" ht="21" spans="1:3">
       <c r="A264" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B264" s="14" t="s">
-        <v>260</v>
+        <v>234</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -5250,10 +5257,10 @@
     </row>
     <row r="265" ht="21" spans="1:3">
       <c r="A265" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B265" s="14" t="s">
-        <v>261</v>
+        <v>234</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -5261,10 +5268,10 @@
     </row>
     <row r="266" ht="21" spans="1:3">
       <c r="A266" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B266" s="14" t="s">
-        <v>262</v>
+        <v>234</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -5272,10 +5279,10 @@
     </row>
     <row r="267" ht="21" spans="1:3">
       <c r="A267" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B267" s="14" t="s">
-        <v>263</v>
+        <v>234</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -5283,10 +5290,10 @@
     </row>
     <row r="268" ht="21" spans="1:3">
       <c r="A268" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B268" s="14" t="s">
-        <v>264</v>
+        <v>234</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -5294,10 +5301,10 @@
     </row>
     <row r="269" ht="21" spans="1:3">
       <c r="A269" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B269" s="14" t="s">
-        <v>265</v>
+        <v>234</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -5305,10 +5312,10 @@
     </row>
     <row r="270" ht="21" spans="1:3">
       <c r="A270" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B270" s="14" t="s">
-        <v>266</v>
+        <v>234</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -5316,10 +5323,10 @@
     </row>
     <row r="271" ht="21" spans="1:3">
       <c r="A271" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B271" s="14" t="s">
-        <v>90</v>
+        <v>234</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>5</v>
@@ -5327,29 +5334,29 @@
     </row>
     <row r="272" ht="21" spans="1:3">
       <c r="A272" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>267</v>
+        <v>234</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="15"/>
+      <c r="B273" s="17"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="15"/>
+      <c r="B274" s="17"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B275" s="14" t="s">
         <v>269</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -5357,10 +5364,10 @@
     </row>
     <row r="276" ht="21" spans="1:3">
       <c r="A276" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B276" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -5368,10 +5375,10 @@
     </row>
     <row r="277" ht="21" spans="1:3">
       <c r="A277" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B277" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -5379,10 +5386,10 @@
     </row>
     <row r="278" ht="21" spans="1:3">
       <c r="A278" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B278" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -5390,10 +5397,10 @@
     </row>
     <row r="279" ht="21" spans="1:3">
       <c r="A279" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -5401,10 +5408,10 @@
     </row>
     <row r="280" ht="21" spans="1:3">
       <c r="A280" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B280" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -5412,10 +5419,10 @@
     </row>
     <row r="281" ht="21" spans="1:3">
       <c r="A281" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B281" s="14" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="B281" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -5423,10 +5430,10 @@
     </row>
     <row r="282" ht="21" spans="1:3">
       <c r="A282" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B282" s="14" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="B282" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -5434,10 +5441,10 @@
     </row>
     <row r="283" ht="21" spans="1:3">
       <c r="A283" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B283" s="14" t="s">
-        <v>277</v>
+        <v>269</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -5445,10 +5452,10 @@
     </row>
     <row r="284" ht="21" spans="1:3">
       <c r="A284" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B284" s="14" t="s">
-        <v>278</v>
+        <v>269</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -5456,10 +5463,10 @@
     </row>
     <row r="285" ht="21" spans="1:3">
       <c r="A285" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B285" s="14" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -5467,10 +5474,10 @@
     </row>
     <row r="286" ht="21" spans="1:3">
       <c r="A286" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B286" s="14" t="s">
-        <v>280</v>
+        <v>269</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -5478,10 +5485,10 @@
     </row>
     <row r="287" ht="21" spans="1:3">
       <c r="A287" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B287" s="14" t="s">
-        <v>281</v>
+        <v>269</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -5489,10 +5496,10 @@
     </row>
     <row r="288" ht="21" spans="1:3">
       <c r="A288" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B288" s="14" t="s">
-        <v>282</v>
+        <v>269</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -5500,10 +5507,10 @@
     </row>
     <row r="289" ht="21" spans="1:3">
       <c r="A289" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B289" s="14" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="B289" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -5511,10 +5518,10 @@
     </row>
     <row r="290" ht="21" spans="1:3">
       <c r="A290" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B290" s="14" t="s">
-        <v>284</v>
+        <v>269</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -5522,10 +5529,10 @@
     </row>
     <row r="291" ht="21" spans="1:3">
       <c r="A291" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>285</v>
+        <v>269</v>
+      </c>
+      <c r="B291" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -5533,10 +5540,10 @@
     </row>
     <row r="292" ht="21" spans="1:3">
       <c r="A292" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B292" s="14" t="s">
-        <v>286</v>
+        <v>269</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -5544,29 +5551,29 @@
     </row>
     <row r="293" ht="21" spans="1:3">
       <c r="A293" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B293" s="14" t="s">
-        <v>287</v>
+        <v>269</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="15"/>
+      <c r="B294" s="17"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="15"/>
+      <c r="B295" s="17"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B296" s="14" t="s">
         <v>289</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -5574,10 +5581,10 @@
     </row>
     <row r="297" ht="21" spans="1:3">
       <c r="A297" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B297" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -5585,10 +5592,10 @@
     </row>
     <row r="298" ht="21" spans="1:3">
       <c r="A298" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B298" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="B298" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -5596,10 +5603,10 @@
     </row>
     <row r="299" ht="21" spans="1:3">
       <c r="A299" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B299" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -5607,10 +5614,10 @@
     </row>
     <row r="300" ht="21" spans="1:3">
       <c r="A300" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B300" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
+      </c>
+      <c r="B300" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -5618,10 +5625,10 @@
     </row>
     <row r="301" ht="21" spans="1:3">
       <c r="A301" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B301" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+      <c r="B301" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -5629,10 +5636,10 @@
     </row>
     <row r="302" ht="21" spans="1:3">
       <c r="A302" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>295</v>
+        <v>289</v>
+      </c>
+      <c r="B302" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -5640,10 +5647,10 @@
     </row>
     <row r="303" ht="21" spans="1:3">
       <c r="A303" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>296</v>
+        <v>289</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -5651,10 +5658,10 @@
     </row>
     <row r="304" ht="21" spans="1:3">
       <c r="A304" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B304" s="14" t="s">
-        <v>297</v>
+        <v>289</v>
+      </c>
+      <c r="B304" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -5662,10 +5669,10 @@
     </row>
     <row r="305" ht="21" spans="1:3">
       <c r="A305" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B305" s="14" t="s">
-        <v>298</v>
+        <v>289</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -5673,10 +5680,10 @@
     </row>
     <row r="306" ht="21" spans="1:3">
       <c r="A306" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B306" s="14" t="s">
-        <v>299</v>
+        <v>289</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -5684,10 +5691,10 @@
     </row>
     <row r="307" ht="21" spans="1:3">
       <c r="A307" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B307" s="14" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="B307" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -5695,10 +5702,10 @@
     </row>
     <row r="308" ht="21" spans="1:3">
       <c r="A308" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B308" s="14" t="s">
-        <v>301</v>
+        <v>289</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -5706,10 +5713,10 @@
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B309" s="17" t="s">
-        <v>302</v>
+        <v>289</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -5717,10 +5724,10 @@
     </row>
     <row r="310" ht="21" spans="1:3">
       <c r="A310" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B310" s="14" t="s">
-        <v>303</v>
+        <v>289</v>
+      </c>
+      <c r="B310" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5728,10 +5735,10 @@
     </row>
     <row r="311" ht="21" spans="1:3">
       <c r="A311" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>304</v>
+        <v>289</v>
+      </c>
+      <c r="B311" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5739,10 +5746,10 @@
     </row>
     <row r="312" ht="21" spans="1:3">
       <c r="A312" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B312" s="14" t="s">
-        <v>305</v>
+        <v>289</v>
+      </c>
+      <c r="B312" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5750,10 +5757,10 @@
     </row>
     <row r="313" ht="21" spans="1:3">
       <c r="A313" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B313" s="14" t="s">
-        <v>306</v>
+        <v>289</v>
+      </c>
+      <c r="B313" s="16" t="s">
+        <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5761,10 +5768,10 @@
     </row>
     <row r="314" ht="21" spans="1:3">
       <c r="A314" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B314" s="14" t="s">
-        <v>307</v>
+        <v>289</v>
+      </c>
+      <c r="B314" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5772,10 +5779,10 @@
     </row>
     <row r="315" ht="21" spans="1:3">
       <c r="A315" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B315" s="14" t="s">
-        <v>308</v>
+        <v>289</v>
+      </c>
+      <c r="B315" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5783,10 +5790,10 @@
     </row>
     <row r="316" ht="21" spans="1:3">
       <c r="A316" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B316" s="14" t="s">
-        <v>309</v>
+        <v>289</v>
+      </c>
+      <c r="B316" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5794,10 +5801,10 @@
     </row>
     <row r="317" ht="21" spans="1:3">
       <c r="A317" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B317" s="14" t="s">
-        <v>310</v>
+        <v>289</v>
+      </c>
+      <c r="B317" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5805,10 +5812,10 @@
     </row>
     <row r="318" ht="21" spans="1:3">
       <c r="A318" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B318" s="14" t="s">
-        <v>311</v>
+        <v>289</v>
+      </c>
+      <c r="B318" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5816,10 +5823,10 @@
     </row>
     <row r="319" ht="21" spans="1:3">
       <c r="A319" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B319" s="14" t="s">
-        <v>312</v>
+        <v>289</v>
+      </c>
+      <c r="B319" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5827,10 +5834,10 @@
     </row>
     <row r="320" ht="21" spans="1:3">
       <c r="A320" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B320" s="14" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B320" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5838,10 +5845,10 @@
     </row>
     <row r="321" ht="21" spans="1:3">
       <c r="A321" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B321" s="14" t="s">
-        <v>314</v>
+        <v>289</v>
+      </c>
+      <c r="B321" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5849,10 +5856,10 @@
     </row>
     <row r="322" ht="21" spans="1:3">
       <c r="A322" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B322" s="14" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5860,10 +5867,10 @@
     </row>
     <row r="323" ht="21" spans="1:3">
       <c r="A323" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B323" s="14" t="s">
-        <v>316</v>
+        <v>289</v>
+      </c>
+      <c r="B323" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5871,10 +5878,10 @@
     </row>
     <row r="324" ht="21" spans="1:3">
       <c r="A324" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B324" s="14" t="s">
-        <v>317</v>
+        <v>289</v>
+      </c>
+      <c r="B324" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5882,10 +5889,10 @@
     </row>
     <row r="325" ht="21" spans="1:3">
       <c r="A325" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B325" s="14" t="s">
-        <v>318</v>
+        <v>289</v>
+      </c>
+      <c r="B325" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5893,10 +5900,10 @@
     </row>
     <row r="326" ht="21" spans="1:3">
       <c r="A326" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B326" s="14" t="s">
-        <v>319</v>
+        <v>289</v>
+      </c>
+      <c r="B326" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5904,10 +5911,10 @@
     </row>
     <row r="327" ht="21" spans="1:3">
       <c r="A327" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B327" s="14" t="s">
-        <v>320</v>
+        <v>289</v>
+      </c>
+      <c r="B327" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5915,10 +5922,10 @@
     </row>
     <row r="328" ht="21" spans="1:3">
       <c r="A328" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B328" s="14" t="s">
-        <v>321</v>
+        <v>289</v>
+      </c>
+      <c r="B328" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5926,10 +5933,10 @@
     </row>
     <row r="329" ht="21" spans="1:3">
       <c r="A329" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B329" s="14" t="s">
-        <v>322</v>
+        <v>289</v>
+      </c>
+      <c r="B329" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5937,10 +5944,10 @@
     </row>
     <row r="330" ht="21" spans="1:3">
       <c r="A330" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B330" s="14" t="s">
-        <v>323</v>
+        <v>289</v>
+      </c>
+      <c r="B330" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5948,10 +5955,10 @@
     </row>
     <row r="331" ht="21" spans="1:3">
       <c r="A331" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B331" s="14" t="s">
-        <v>324</v>
+        <v>289</v>
+      </c>
+      <c r="B331" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5959,10 +5966,10 @@
     </row>
     <row r="332" ht="21" spans="1:3">
       <c r="A332" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B332" s="14" t="s">
-        <v>325</v>
+        <v>289</v>
+      </c>
+      <c r="B332" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5970,801 +5977,801 @@
     </row>
     <row r="333" ht="21" spans="1:3">
       <c r="A333" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B333" s="14" t="s">
-        <v>326</v>
+        <v>289</v>
+      </c>
+      <c r="B333" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="15"/>
+      <c r="B334" s="17"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="15"/>
+      <c r="B335" s="17"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B336" s="14" t="s">
+      <c r="A336" s="18" t="s">
         <v>328</v>
       </c>
+      <c r="B336" s="16" t="s">
+        <v>329</v>
+      </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B337" s="14" t="s">
-        <v>329</v>
+      <c r="A337" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B337" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B338" s="14" t="s">
-        <v>330</v>
+      <c r="A338" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B339" s="14" t="s">
-        <v>331</v>
+      <c r="A339" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B339" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B340" s="14" t="s">
-        <v>332</v>
+      <c r="A340" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B340" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B341" s="14" t="s">
-        <v>333</v>
+      <c r="A341" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B341" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B342" s="14" t="s">
-        <v>334</v>
+      <c r="A342" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B342" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B343" s="14" t="s">
-        <v>335</v>
+      <c r="A343" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B343" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B344" s="17" t="s">
-        <v>336</v>
+      <c r="A344" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B344" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B345" s="14" t="s">
-        <v>337</v>
+      <c r="A345" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B346" s="14" t="s">
-        <v>338</v>
+      <c r="A346" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B346" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B347" s="14" t="s">
-        <v>339</v>
+      <c r="A347" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B347" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>340</v>
+      <c r="A348" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B348" s="16" t="s">
+        <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B349" s="14" t="s">
-        <v>341</v>
+      <c r="A349" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B350" s="14" t="s">
-        <v>342</v>
+      <c r="A350" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B350" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B351" s="14" t="s">
-        <v>343</v>
+      <c r="A351" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B351" s="16" t="s">
+        <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B352" s="14" t="s">
-        <v>344</v>
+      <c r="A352" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B352" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B353" s="14" t="s">
-        <v>345</v>
+      <c r="A353" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="15"/>
+      <c r="B354" s="17"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="15"/>
+      <c r="B355" s="17"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B356" s="14" t="s">
+      <c r="A356" s="18" t="s">
         <v>347</v>
       </c>
+      <c r="B356" s="16" t="s">
+        <v>348</v>
+      </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B357" s="14" t="s">
-        <v>348</v>
+      <c r="A357" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B358" s="14" t="s">
-        <v>349</v>
+      <c r="A358" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B359" s="14" t="s">
-        <v>350</v>
+      <c r="A359" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B360" s="14" t="s">
-        <v>351</v>
+      <c r="A360" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B360" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B361" s="14" t="s">
-        <v>352</v>
+      <c r="A361" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B362" s="14" t="s">
-        <v>353</v>
+      <c r="A362" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B363" s="14" t="s">
-        <v>354</v>
+      <c r="A363" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B363" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B364" s="14" t="s">
-        <v>355</v>
+      <c r="A364" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B365" s="14" t="s">
-        <v>356</v>
+      <c r="A365" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B366" s="14" t="s">
-        <v>357</v>
+      <c r="A366" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B367" s="14" t="s">
-        <v>358</v>
+      <c r="A367" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B367" s="16" t="s">
+        <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B368" s="14" t="s">
-        <v>359</v>
+      <c r="A368" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B369" s="14" t="s">
-        <v>360</v>
+      <c r="A369" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B370" s="14" t="s">
-        <v>361</v>
+      <c r="A370" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B371" s="14" t="s">
-        <v>362</v>
+      <c r="A371" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B372" s="14" t="s">
-        <v>363</v>
+      <c r="A372" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B373" s="14" t="s">
-        <v>364</v>
+      <c r="A373" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B374" s="14" t="s">
-        <v>365</v>
+      <c r="A374" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B375" s="14" t="s">
-        <v>366</v>
+      <c r="A375" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B376" s="14" t="s">
-        <v>367</v>
+      <c r="A376" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B376" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>368</v>
+      <c r="A377" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B377" s="16" t="s">
+        <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B378" s="14" t="s">
-        <v>369</v>
+      <c r="A378" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B379" s="14" t="s">
-        <v>370</v>
+      <c r="A379" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B380" s="14" t="s">
-        <v>371</v>
+      <c r="A380" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B380" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B381" s="14" t="s">
-        <v>372</v>
+      <c r="A381" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B381" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B382" s="14" t="s">
-        <v>373</v>
+      <c r="A382" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B382" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B383" s="14" t="s">
-        <v>374</v>
+      <c r="A383" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B383" s="16" t="s">
+        <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B384" s="14" t="s">
-        <v>375</v>
+      <c r="A384" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B384" s="16" t="s">
+        <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B385" s="14" t="s">
-        <v>376</v>
+      <c r="A385" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B385" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B386" s="14" t="s">
-        <v>377</v>
+      <c r="A386" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B386" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B387" s="14" t="s">
-        <v>378</v>
+      <c r="A387" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B387" s="16" t="s">
+        <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B388" s="14" t="s">
-        <v>379</v>
+      <c r="A388" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B388" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B389" s="14" t="s">
-        <v>380</v>
+      <c r="A389" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B389" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B390" s="14" t="s">
-        <v>380</v>
+      <c r="A390" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B390" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B391" s="14" t="s">
-        <v>381</v>
+      <c r="A391" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B391" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B392" s="14" t="s">
-        <v>382</v>
+      <c r="A392" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B392" s="16" t="s">
+        <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B393" s="14" t="s">
-        <v>383</v>
+      <c r="A393" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B393" s="16" t="s">
+        <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B394" s="14" t="s">
-        <v>384</v>
+      <c r="A394" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B394" s="16" t="s">
+        <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B395" s="14" t="s">
-        <v>385</v>
+      <c r="A395" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B395" s="16" t="s">
+        <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B396" s="14" t="s">
-        <v>386</v>
+      <c r="A396" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B396" s="16" t="s">
+        <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B397" s="14" t="s">
-        <v>387</v>
+      <c r="A397" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B397" s="16" t="s">
+        <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B398" s="14" t="s">
-        <v>388</v>
+      <c r="A398" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B398" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B399" s="14" t="s">
-        <v>389</v>
+      <c r="A399" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B399" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="15"/>
+      <c r="B400" s="17"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="15"/>
+      <c r="B401" s="17"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B402" s="14" t="s">
+      <c r="A402" s="18" t="s">
         <v>391</v>
       </c>
+      <c r="B402" s="16" t="s">
+        <v>392</v>
+      </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B403" s="14" t="s">
-        <v>392</v>
+      <c r="A403" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B403" s="16" t="s">
+        <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B404" s="14" t="s">
-        <v>393</v>
+      <c r="A404" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B404" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B405" s="14" t="s">
-        <v>92</v>
+      <c r="A405" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B405" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B406" s="14" t="s">
-        <v>394</v>
+      <c r="A406" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B406" s="16" t="s">
+        <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B407" s="14" t="s">
-        <v>395</v>
+      <c r="A407" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="15"/>
+      <c r="B408" s="17"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="15"/>
+      <c r="B409" s="17"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B410" s="14" t="s">
         <v>397</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6772,10 +6779,10 @@
     </row>
     <row r="411" ht="21" spans="1:3">
       <c r="A411" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B411" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6783,10 +6790,10 @@
     </row>
     <row r="412" ht="21" spans="1:3">
       <c r="A412" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B412" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
+      </c>
+      <c r="B412" s="16" t="s">
+        <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6794,10 +6801,10 @@
     </row>
     <row r="413" ht="21" spans="1:3">
       <c r="A413" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B413" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="B413" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6805,10 +6812,10 @@
     </row>
     <row r="414" ht="21" spans="1:3">
       <c r="A414" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B414" s="14" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="B414" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6816,10 +6823,10 @@
     </row>
     <row r="415" ht="21" spans="1:3">
       <c r="A415" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B415" s="14" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+      <c r="B415" s="16" t="s">
+        <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6827,10 +6834,10 @@
     </row>
     <row r="416" ht="21" spans="1:3">
       <c r="A416" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B416" s="14" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="B416" s="16" t="s">
+        <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6838,10 +6845,10 @@
     </row>
     <row r="417" ht="21" spans="1:3">
       <c r="A417" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B417" s="14" t="s">
-        <v>276</v>
+        <v>397</v>
+      </c>
+      <c r="B417" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6849,10 +6856,10 @@
     </row>
     <row r="418" ht="21" spans="1:3">
       <c r="A418" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B418" s="14" t="s">
-        <v>404</v>
+        <v>397</v>
+      </c>
+      <c r="B418" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6860,10 +6867,10 @@
     </row>
     <row r="419" ht="21" spans="1:3">
       <c r="A419" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B419" s="14" t="s">
-        <v>405</v>
+        <v>397</v>
+      </c>
+      <c r="B419" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6871,10 +6878,10 @@
     </row>
     <row r="420" ht="21" spans="1:3">
       <c r="A420" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B420" s="14" t="s">
-        <v>406</v>
+        <v>397</v>
+      </c>
+      <c r="B420" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6882,10 +6889,10 @@
     </row>
     <row r="421" ht="21" spans="1:3">
       <c r="A421" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B421" s="14" t="s">
-        <v>407</v>
+        <v>397</v>
+      </c>
+      <c r="B421" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6893,10 +6900,10 @@
     </row>
     <row r="422" ht="21" spans="1:3">
       <c r="A422" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B422" s="14" t="s">
-        <v>408</v>
+        <v>397</v>
+      </c>
+      <c r="B422" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6904,10 +6911,10 @@
     </row>
     <row r="423" ht="21" spans="1:3">
       <c r="A423" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B423" s="14" t="s">
-        <v>409</v>
+        <v>397</v>
+      </c>
+      <c r="B423" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6915,10 +6922,10 @@
     </row>
     <row r="424" ht="21" spans="1:3">
       <c r="A424" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B424" s="14" t="s">
-        <v>410</v>
+        <v>397</v>
+      </c>
+      <c r="B424" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6926,10 +6933,10 @@
     </row>
     <row r="425" ht="21" spans="1:3">
       <c r="A425" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B425" s="14" t="s">
-        <v>411</v>
+        <v>397</v>
+      </c>
+      <c r="B425" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6937,10 +6944,10 @@
     </row>
     <row r="426" ht="21" spans="1:3">
       <c r="A426" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B426" s="14" t="s">
-        <v>412</v>
+        <v>397</v>
+      </c>
+      <c r="B426" s="16" t="s">
+        <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6948,10 +6955,10 @@
     </row>
     <row r="427" ht="21" spans="1:3">
       <c r="A427" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B427" s="14" t="s">
-        <v>413</v>
+        <v>397</v>
+      </c>
+      <c r="B427" s="16" t="s">
+        <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6959,10 +6966,10 @@
     </row>
     <row r="428" ht="21" spans="1:3">
       <c r="A428" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B428" s="14" t="s">
-        <v>414</v>
+        <v>397</v>
+      </c>
+      <c r="B428" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6970,10 +6977,10 @@
     </row>
     <row r="429" ht="21" spans="1:3">
       <c r="A429" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B429" s="14" t="s">
-        <v>415</v>
+        <v>397</v>
+      </c>
+      <c r="B429" s="16" t="s">
+        <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6981,10 +6988,10 @@
     </row>
     <row r="430" ht="21" spans="1:3">
       <c r="A430" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B430" s="14" t="s">
-        <v>416</v>
+        <v>397</v>
+      </c>
+      <c r="B430" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6992,10 +6999,10 @@
     </row>
     <row r="431" ht="21" spans="1:3">
       <c r="A431" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B431" s="14" t="s">
-        <v>417</v>
+        <v>397</v>
+      </c>
+      <c r="B431" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -7003,10 +7010,10 @@
     </row>
     <row r="432" ht="21" spans="1:3">
       <c r="A432" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B432" s="14" t="s">
-        <v>418</v>
+        <v>397</v>
+      </c>
+      <c r="B432" s="16" t="s">
+        <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -7014,10 +7021,10 @@
     </row>
     <row r="433" ht="21" spans="1:3">
       <c r="A433" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B433" s="14" t="s">
-        <v>419</v>
+        <v>397</v>
+      </c>
+      <c r="B433" s="16" t="s">
+        <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -7025,10 +7032,10 @@
     </row>
     <row r="434" ht="21" spans="1:3">
       <c r="A434" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B434" s="14" t="s">
-        <v>420</v>
+        <v>397</v>
+      </c>
+      <c r="B434" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -7036,10 +7043,10 @@
     </row>
     <row r="435" ht="21" spans="1:3">
       <c r="A435" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B435" s="14" t="s">
-        <v>421</v>
+        <v>397</v>
+      </c>
+      <c r="B435" s="16" t="s">
+        <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -7047,10 +7054,10 @@
     </row>
     <row r="436" ht="21" spans="1:3">
       <c r="A436" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B436" s="14" t="s">
-        <v>422</v>
+        <v>397</v>
+      </c>
+      <c r="B436" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -7058,10 +7065,10 @@
     </row>
     <row r="437" ht="21" spans="1:3">
       <c r="A437" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B437" s="14" t="s">
-        <v>423</v>
+        <v>397</v>
+      </c>
+      <c r="B437" s="16" t="s">
+        <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -7069,10 +7076,10 @@
     </row>
     <row r="438" ht="21" spans="1:3">
       <c r="A438" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B438" s="14" t="s">
-        <v>424</v>
+        <v>397</v>
+      </c>
+      <c r="B438" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -7080,10 +7087,10 @@
     </row>
     <row r="439" ht="21" spans="1:3">
       <c r="A439" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B439" s="14" t="s">
-        <v>425</v>
+        <v>397</v>
+      </c>
+      <c r="B439" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -7091,10 +7098,10 @@
     </row>
     <row r="440" ht="21" spans="1:3">
       <c r="A440" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B440" s="14" t="s">
-        <v>426</v>
+        <v>397</v>
+      </c>
+      <c r="B440" s="16" t="s">
+        <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -7102,10 +7109,10 @@
     </row>
     <row r="441" ht="21" spans="1:3">
       <c r="A441" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B441" s="14" t="s">
-        <v>427</v>
+        <v>397</v>
+      </c>
+      <c r="B441" s="16" t="s">
+        <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -7113,10 +7120,10 @@
     </row>
     <row r="442" ht="21" spans="1:3">
       <c r="A442" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B442" s="14" t="s">
-        <v>428</v>
+        <v>397</v>
+      </c>
+      <c r="B442" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -7124,10 +7131,10 @@
     </row>
     <row r="443" ht="21" spans="1:3">
       <c r="A443" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B443" s="14" t="s">
-        <v>429</v>
+        <v>397</v>
+      </c>
+      <c r="B443" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -7135,10 +7142,10 @@
     </row>
     <row r="444" ht="21" spans="1:3">
       <c r="A444" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B444" s="14" t="s">
-        <v>430</v>
+        <v>397</v>
+      </c>
+      <c r="B444" s="16" t="s">
+        <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -7146,10 +7153,10 @@
     </row>
     <row r="445" ht="21" spans="1:3">
       <c r="A445" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B445" s="14" t="s">
-        <v>431</v>
+        <v>397</v>
+      </c>
+      <c r="B445" s="16" t="s">
+        <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -7157,10 +7164,10 @@
     </row>
     <row r="446" ht="21" spans="1:3">
       <c r="A446" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B446" s="14" t="s">
-        <v>432</v>
+        <v>397</v>
+      </c>
+      <c r="B446" s="16" t="s">
+        <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -7168,10 +7175,10 @@
     </row>
     <row r="447" ht="21" spans="1:3">
       <c r="A447" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B447" s="14" t="s">
-        <v>433</v>
+        <v>397</v>
+      </c>
+      <c r="B447" s="16" t="s">
+        <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -7179,10 +7186,10 @@
     </row>
     <row r="448" ht="21" spans="1:3">
       <c r="A448" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B448" s="14" t="s">
-        <v>434</v>
+        <v>397</v>
+      </c>
+      <c r="B448" s="16" t="s">
+        <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -7190,10 +7197,10 @@
     </row>
     <row r="449" ht="21" spans="1:3">
       <c r="A449" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B449" s="14" t="s">
-        <v>435</v>
+        <v>397</v>
+      </c>
+      <c r="B449" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -7201,10 +7208,10 @@
     </row>
     <row r="450" ht="21" spans="1:3">
       <c r="A450" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B450" s="14" t="s">
-        <v>436</v>
+        <v>397</v>
+      </c>
+      <c r="B450" s="16" t="s">
+        <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -7212,10 +7219,10 @@
     </row>
     <row r="451" ht="21" spans="1:3">
       <c r="A451" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B451" s="14" t="s">
-        <v>437</v>
+        <v>397</v>
+      </c>
+      <c r="B451" s="16" t="s">
+        <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -7223,10 +7230,10 @@
     </row>
     <row r="452" ht="21" spans="1:3">
       <c r="A452" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B452" s="14" t="s">
-        <v>438</v>
+        <v>397</v>
+      </c>
+      <c r="B452" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -7234,10 +7241,10 @@
     </row>
     <row r="453" ht="21" spans="1:3">
       <c r="A453" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B453" s="14" t="s">
-        <v>439</v>
+        <v>397</v>
+      </c>
+      <c r="B453" s="16" t="s">
+        <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -7245,10 +7252,10 @@
     </row>
     <row r="454" ht="21" spans="1:3">
       <c r="A454" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B454" s="14" t="s">
-        <v>440</v>
+        <v>397</v>
+      </c>
+      <c r="B454" s="16" t="s">
+        <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -7256,10 +7263,10 @@
     </row>
     <row r="455" ht="21" spans="1:3">
       <c r="A455" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B455" s="14" t="s">
-        <v>441</v>
+        <v>397</v>
+      </c>
+      <c r="B455" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -7267,10 +7274,10 @@
     </row>
     <row r="456" ht="21" spans="1:3">
       <c r="A456" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B456" s="14" t="s">
-        <v>442</v>
+        <v>397</v>
+      </c>
+      <c r="B456" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -7278,10 +7285,10 @@
     </row>
     <row r="457" ht="21" spans="1:3">
       <c r="A457" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B457" s="14" t="s">
-        <v>443</v>
+        <v>397</v>
+      </c>
+      <c r="B457" s="16" t="s">
+        <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -7289,10 +7296,10 @@
     </row>
     <row r="458" ht="21" spans="1:3">
       <c r="A458" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B458" s="14" t="s">
-        <v>444</v>
+        <v>397</v>
+      </c>
+      <c r="B458" s="16" t="s">
+        <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -7300,10 +7307,10 @@
     </row>
     <row r="459" ht="21" spans="1:3">
       <c r="A459" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B459" s="14" t="s">
-        <v>445</v>
+        <v>397</v>
+      </c>
+      <c r="B459" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -7311,10 +7318,10 @@
     </row>
     <row r="460" ht="21" spans="1:3">
       <c r="A460" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B460" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
+      </c>
+      <c r="B460" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -7322,10 +7329,10 @@
     </row>
     <row r="461" ht="21" spans="1:3">
       <c r="A461" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>447</v>
+        <v>397</v>
+      </c>
+      <c r="B461" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -7333,10 +7340,10 @@
     </row>
     <row r="462" ht="21" spans="1:3">
       <c r="A462" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B462" s="14" t="s">
-        <v>448</v>
+        <v>397</v>
+      </c>
+      <c r="B462" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -7344,10 +7351,10 @@
     </row>
     <row r="463" ht="21" spans="1:3">
       <c r="A463" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B463" s="14" t="s">
-        <v>449</v>
+        <v>397</v>
+      </c>
+      <c r="B463" s="16" t="s">
+        <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -7355,10 +7362,10 @@
     </row>
     <row r="464" ht="21" spans="1:3">
       <c r="A464" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B464" s="14" t="s">
-        <v>450</v>
+        <v>397</v>
+      </c>
+      <c r="B464" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -7366,10 +7373,10 @@
     </row>
     <row r="465" ht="21" spans="1:3">
       <c r="A465" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B465" s="14" t="s">
-        <v>451</v>
+        <v>397</v>
+      </c>
+      <c r="B465" s="16" t="s">
+        <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -7377,10 +7384,10 @@
     </row>
     <row r="466" ht="21" spans="1:3">
       <c r="A466" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B466" s="14" t="s">
-        <v>452</v>
+        <v>397</v>
+      </c>
+      <c r="B466" s="16" t="s">
+        <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -7388,10 +7395,10 @@
     </row>
     <row r="467" ht="21" spans="1:3">
       <c r="A467" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B467" s="14" t="s">
-        <v>453</v>
+        <v>397</v>
+      </c>
+      <c r="B467" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -7399,10 +7406,10 @@
     </row>
     <row r="468" ht="21" spans="1:3">
       <c r="A468" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B468" s="14" t="s">
-        <v>454</v>
+        <v>397</v>
+      </c>
+      <c r="B468" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -7410,30 +7417,30 @@
     </row>
     <row r="469" ht="21" spans="1:3">
       <c r="A469" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B469" s="14" t="s">
-        <v>455</v>
+        <v>397</v>
+      </c>
+      <c r="B469" s="16" t="s">
+        <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="15"/>
+      <c r="B470" s="17"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="16"/>
-      <c r="B471" s="15"/>
+      <c r="A471" s="18"/>
+      <c r="B471" s="17"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B472" s="14" t="s">
         <v>457</v>
+      </c>
+      <c r="B472" s="16" t="s">
+        <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -7441,10 +7448,10 @@
     </row>
     <row r="473" ht="21" spans="1:3">
       <c r="A473" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B473" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
+      </c>
+      <c r="B473" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -7452,10 +7459,10 @@
     </row>
     <row r="474" ht="21" spans="1:3">
       <c r="A474" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B474" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="B474" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -7463,10 +7470,10 @@
     </row>
     <row r="475" ht="21" spans="1:3">
       <c r="A475" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B475" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="B475" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -7474,10 +7481,10 @@
     </row>
     <row r="476" ht="21" spans="1:3">
       <c r="A476" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B476" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
+      </c>
+      <c r="B476" s="16" t="s">
+        <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -7485,10 +7492,10 @@
     </row>
     <row r="477" ht="21" spans="1:3">
       <c r="A477" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B477" s="14" t="s">
-        <v>462</v>
+        <v>457</v>
+      </c>
+      <c r="B477" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -7496,10 +7503,10 @@
     </row>
     <row r="478" ht="21" spans="1:3">
       <c r="A478" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B478" s="14" t="s">
-        <v>463</v>
+        <v>457</v>
+      </c>
+      <c r="B478" s="16" t="s">
+        <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -7507,10 +7514,10 @@
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B479" s="14" t="s">
-        <v>464</v>
+        <v>457</v>
+      </c>
+      <c r="B479" s="16" t="s">
+        <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -7518,10 +7525,10 @@
     </row>
     <row r="480" ht="21" spans="1:3">
       <c r="A480" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B480" s="14" t="s">
-        <v>465</v>
+        <v>457</v>
+      </c>
+      <c r="B480" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -7529,10 +7536,10 @@
     </row>
     <row r="481" ht="21" spans="1:3">
       <c r="A481" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B481" s="14" t="s">
-        <v>466</v>
+        <v>457</v>
+      </c>
+      <c r="B481" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>
@@ -7554,437 +7561,437 @@
     <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
     <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
     <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B21" r:id="rId14" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId15" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId16" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId17" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId18" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId19" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId20" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId21" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId22" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId23" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId24" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId25" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId26" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId27" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId28" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId29" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId30" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId31" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId32" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId33" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId34" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId35" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId36" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId37" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId38" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId39" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId40" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId41" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId42" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId43" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId44" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId45" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId46" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId47" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId48" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId49" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId50" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId51" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId52" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId53" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId54" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId55" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId56" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId57" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId58" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId59" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId60" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId61" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId62" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId63" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId64" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId65" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId66" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId67" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId68" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId69" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId70" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId71" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId72" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId73" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId74" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId75" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId76" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId78" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId80" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId81" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId82" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId83" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId84" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId85" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId86" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId87" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId88" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId89" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId90" display="square root of an integer"/>
+    <hyperlink ref="B106" r:id="rId91" display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId92" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId93" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId94" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId95" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId96" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B113" r:id="rId97" display="Count triplet with sum smaller than a given value"/>
     <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B115" r:id="rId98" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId99" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId100" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId101" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId102" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId103" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId104" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId105" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId106" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId107" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId108" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId109" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId110" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId111" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId112" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId108" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId113" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId114" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId115" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId14" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId116" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId117" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B105" r:id="rId118" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B112" r:id="rId119" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B139" r:id="rId120" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId121" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId122" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId123" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId124" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId125" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId126" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId127" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId128" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId129" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId130" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId131" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId132" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId133" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId134" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId135" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId136" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId137" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId138" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId139" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId140" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId141" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId142" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId143" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId144" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId145" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId146" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId147" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId148" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId149" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId150" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId151" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId152" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId153" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId154" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId155" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId156" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId157" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId158" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId159" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId160" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId161" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId162" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId163" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId164" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId165" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId166" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId167" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId168" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId169" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId170" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId171" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId172" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId173" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId174" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId175" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId176" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId177" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId178" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId179" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId180" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId181" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId182" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId183" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId184" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId185" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId186" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId187" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId188" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId189" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId190" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId191" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId192" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId193" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId194" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId195" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId196" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId197" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId198" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId199" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId200" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId201" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId202" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId203" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId204" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId205" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId206" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId207" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId208" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId209" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId210" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId211" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId212" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId213" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId214" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId215" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId216" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId217" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId218" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId219" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId220" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId221" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId222" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId223" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId224" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId225" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId226" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId227" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId228" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId229" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId230" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId231" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId232" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId233" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId28" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId234" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId235" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId236" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId237" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId238" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId239" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId240" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId241" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId242" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId243" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId244" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId245" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId246" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId247" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId248" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId249" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId250" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId252" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId253" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId254" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId255" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId256" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId54" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId257" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId258" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId259" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId260" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId261" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId262" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId263" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId264" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId265" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId266" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId59" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId267" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId268" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId269" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId270" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId271" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId272" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId273" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId274" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId275" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId276" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId277" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId278" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId279" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId280" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId281" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId282" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId283" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId284" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId285" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId286" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId287" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId288" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId289" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId290" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId291" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId292" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId293" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId294" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId295" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId296" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId153" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId297" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId298" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId299" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId300" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId301" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId302" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId303" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId304" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId305" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId306" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId148" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId307" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId308" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId309" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId241" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId310" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId311" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId312" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B357" r:id="rId313" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId314" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId315" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId316" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId244" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId317" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId318" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId319" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId320" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId321" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId322" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId323" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId324" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId325" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId326" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId327" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId328" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId329" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId330" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId331" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId332" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId333" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId334" display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId335" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId336" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId337" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId338" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId339" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId340" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId341" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId342" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId343" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId257" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId249" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId345" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId346" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B396" r:id="rId347" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B395" r:id="rId348" display="Vertex Cover Problem"/>
+    <hyperlink ref="B397" r:id="rId349" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId221" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId350" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId351" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId352" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId353" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId354" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId355" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId356" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId357" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId358" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId359" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId360" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId361" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId57" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId362" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId363" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId364" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId365" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId366" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId74" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId52" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId367" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId368" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId369" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId370" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId371" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId372" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId373" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId374" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId375" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId376" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId377" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId378" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId379" display="Maximum difference of zeros and ones in binary string"/>
     <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B439" r:id="rId380" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId381" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId382" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId383" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId384" display="Count Balanced Binary Trees of Height h"/>
     <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId405" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId406" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId410" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId411" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId412" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId413" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
+    <hyperlink ref="B445" r:id="rId385" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId386" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId60" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId387" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId251" display="Partition problem"/>
+    <hyperlink ref="B451" r:id="rId65" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B450" r:id="rId388" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B452" r:id="rId389" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId390" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId391" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId392" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId393" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId24" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId394" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId395" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId396" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId56" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId397" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B469" r:id="rId398" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B468" r:id="rId399" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B467" r:id="rId400" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B466" r:id="rId401" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B465" r:id="rId402" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B464" r:id="rId403" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B463" r:id="rId404" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B472" r:id="rId405" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId406" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId407" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId408" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId409" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId410" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId411" display="Copy set bits in a range"/>
+    <hyperlink ref="B481" r:id="rId412" display="Power Set"/>
+    <hyperlink ref="B479" r:id="rId413" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId414" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B356" r:id="rId415" display="Create a Graph, print it"/>
+    <hyperlink ref="B20" r:id="rId416" display="Next Permutation"/>
     <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/450_Questions/450Question.xlsx
+++ b/450_Questions/450Question.xlsx
@@ -1425,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1503,29 +1503,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1548,20 +1525,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1569,9 +1539,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,10 +1555,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1624,10 +1608,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1638,8 +1623,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,7 +1640,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,13 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1686,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,7 +1740,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,43 +1800,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,91 +1854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,36 +1869,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1952,166 +1932,186 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2139,7 +2139,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2473,8 +2472,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="3"/>
@@ -2510,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="21" spans="1:3">
+    <row r="6" ht="21" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2520,8 +2519,11 @@
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" ht="21" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="21" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2531,8 +2533,11 @@
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" ht="21" spans="1:3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2542,8 +2547,11 @@
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" ht="21" spans="1:3">
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="21" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2553,8 +2561,11 @@
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" ht="21" spans="1:3">
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2564,8 +2575,11 @@
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" ht="21" spans="1:3">
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="21" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2575,8 +2589,11 @@
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" ht="21" spans="1:3">
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="21" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2586,8 +2603,11 @@
       <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" ht="21" spans="1:3">
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="21" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2597,8 +2617,11 @@
       <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" ht="21" spans="1:3">
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="21" spans="1:4">
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
@@ -2608,8 +2631,11 @@
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" ht="21" spans="1:3">
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="21" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2619,8 +2645,11 @@
       <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" ht="21" spans="1:3">
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="21" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2629,6 +2658,9 @@
       </c>
       <c r="C16" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:4">
@@ -2641,9 +2673,11 @@
       <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" ht="21" spans="1:3">
+      <c r="D17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="21" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2653,8 +2687,11 @@
       <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" ht="21" spans="1:3">
+      <c r="D18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="21" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2664,8 +2701,11 @@
       <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" ht="21" spans="1:3">
+      <c r="D19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="21" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2675,19 +2715,25 @@
       <c r="C20" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" ht="21" spans="1:3">
-      <c r="A21" s="14" t="s">
+      <c r="D20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="21" spans="1:4">
+      <c r="A21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" ht="21" spans="1:3">
+      <c r="D21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="21" spans="1:4">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2697,827 +2743,1046 @@
       <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" ht="21" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="D22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="21" spans="1:4">
+      <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" ht="21" spans="1:3">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="21" spans="1:4">
+      <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" ht="21" spans="1:3">
-      <c r="A25" s="10" t="s">
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="21" spans="1:4">
+      <c r="A25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" ht="21" spans="1:3">
-      <c r="A26" s="10" t="s">
+      <c r="C25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="21" spans="1:4">
+      <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" ht="21" spans="1:3">
+      <c r="C26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="21" spans="1:4">
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" ht="21" spans="1:3">
+      <c r="D27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="21" spans="1:4">
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" ht="21" spans="1:3">
+      <c r="D28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="21" spans="1:4">
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" ht="21" spans="1:3">
+      <c r="D29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="21" spans="1:4">
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" ht="21" spans="1:3">
+      <c r="D30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" ht="21" spans="1:4">
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" ht="21" spans="1:3">
+      <c r="D31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="21" spans="1:4">
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" ht="21" spans="1:3">
+      <c r="D32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="21" spans="1:4">
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" ht="21" spans="1:3">
+      <c r="D33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" ht="21" spans="1:4">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" ht="21" spans="1:3">
+      <c r="D34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="21" spans="1:4">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" ht="21" spans="1:3">
+      <c r="D35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" ht="21" spans="1:4">
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" ht="21" spans="1:3">
+      <c r="D36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" ht="21" spans="1:4">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" ht="21" spans="1:3">
+      <c r="D37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" ht="21" spans="1:4">
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" ht="21" spans="1:3">
+      <c r="D38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" ht="21" spans="1:4">
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" ht="21" spans="1:3">
+      <c r="D39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" ht="21" spans="1:4">
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" ht="21" spans="1:3">
+      <c r="D40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" ht="21" spans="1:4">
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="10"/>
-      <c r="B43" s="17"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="18" t="s">
+    <row r="44" ht="21" spans="1:4">
+      <c r="A44" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="18" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="21" spans="1:4">
+      <c r="A45" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="18" t="s">
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" ht="21" spans="1:4">
+      <c r="A46" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="18" t="s">
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="21" spans="1:4">
+      <c r="A47" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="18" t="s">
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" ht="21" spans="1:4">
+      <c r="A48" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="18" t="s">
+      <c r="D48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" ht="21" spans="1:4">
+      <c r="A49" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="18" t="s">
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" ht="21" spans="1:4">
+      <c r="A50" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="18" t="s">
+      <c r="D50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" ht="21" spans="1:4">
+      <c r="A51" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="18" t="s">
+      <c r="D51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="21" spans="1:4">
+      <c r="A52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="18" t="s">
+      <c r="D52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" ht="21" spans="1:4">
+      <c r="A53" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="10"/>
-      <c r="B55" s="17"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" ht="21" spans="1:3">
+    <row r="56" ht="21" spans="1:4">
       <c r="A56" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" ht="21" spans="1:3">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="21" spans="1:4">
       <c r="A57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" ht="21" spans="1:3">
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="21" spans="1:4">
       <c r="A58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" ht="21" spans="1:3">
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" ht="21" spans="1:4">
       <c r="A59" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" ht="21" spans="1:3">
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" ht="21" spans="1:4">
       <c r="A60" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" ht="21" spans="1:3">
+      <c r="D60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" ht="21" spans="1:4">
       <c r="A61" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" ht="21" spans="1:3">
+      <c r="D61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" ht="21" spans="1:4">
       <c r="A62" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" ht="21" spans="1:3">
+      <c r="D62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" ht="21" spans="1:4">
       <c r="A63" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" ht="21" spans="1:3">
+      <c r="D63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" ht="21" spans="1:4">
       <c r="A64" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" ht="21" spans="1:3">
+      <c r="D64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" ht="21" spans="1:4">
       <c r="A65" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" ht="21" spans="1:3">
+      <c r="D65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" ht="21" spans="1:4">
       <c r="A66" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" ht="21" spans="1:3">
+      <c r="D66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" ht="21" spans="1:4">
       <c r="A67" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" ht="21" spans="1:3">
+      <c r="D67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="21" spans="1:4">
       <c r="A68" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" ht="21" spans="1:3">
+      <c r="D68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="21" spans="1:4">
       <c r="A69" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" ht="21" spans="1:3">
+      <c r="D69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" ht="21" spans="1:4">
       <c r="A70" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" ht="21" spans="1:3">
+      <c r="D70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" ht="21" spans="1:4">
       <c r="A71" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" ht="21" spans="1:3">
+      <c r="D71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="21" spans="1:4">
       <c r="A72" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" ht="21" spans="1:3">
+      <c r="D72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" ht="21" spans="1:4">
       <c r="A73" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" ht="21" spans="1:3">
+      <c r="D73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" ht="21" spans="1:4">
       <c r="A74" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" ht="21" spans="1:3">
+      <c r="D74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" ht="21" spans="1:4">
       <c r="A75" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" ht="21" spans="1:3">
+      <c r="D75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" ht="21" spans="1:4">
       <c r="A76" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" ht="21" spans="1:3">
+      <c r="D76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="21" spans="1:4">
       <c r="A77" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" ht="21" spans="1:3">
+      <c r="D77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" ht="21" spans="1:4">
       <c r="A78" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" ht="21" spans="1:3">
+      <c r="D78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" ht="21" spans="1:4">
       <c r="A79" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" ht="21" spans="1:3">
+      <c r="D79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" ht="21" spans="1:4">
       <c r="A80" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" ht="21" spans="1:3">
+      <c r="D80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" ht="21" spans="1:4">
       <c r="A81" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" ht="21" spans="1:3">
+      <c r="D81">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" ht="21" spans="1:4">
       <c r="A82" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" ht="21" spans="1:3">
+      <c r="D82">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" ht="21" spans="1:4">
       <c r="A83" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" ht="21" spans="1:3">
+      <c r="D83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" ht="21" spans="1:4">
       <c r="A84" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" ht="21" spans="1:3">
+      <c r="D84">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" ht="21" spans="1:4">
       <c r="A85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" ht="21" spans="1:3">
+      <c r="D85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" ht="21" spans="1:4">
       <c r="A86" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" ht="21" spans="1:3">
+      <c r="D86">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" ht="21" spans="1:4">
       <c r="A87" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" ht="21" spans="1:3">
+      <c r="D87">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" ht="21" spans="1:4">
       <c r="A88" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" ht="21" spans="1:3">
+      <c r="D88">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" ht="21" spans="1:4">
       <c r="A89" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" ht="21" spans="1:3">
+      <c r="D89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" ht="21" spans="1:4">
       <c r="A90" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" ht="21" spans="1:3">
+      <c r="D90">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" ht="21" spans="1:4">
       <c r="A91" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" ht="21" spans="1:3">
+      <c r="D91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" ht="21" spans="1:4">
       <c r="A92" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" ht="21" spans="1:3">
+      <c r="D92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" ht="21" spans="1:4">
       <c r="A93" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" ht="21" spans="1:3">
+      <c r="D93">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" ht="21" spans="1:4">
       <c r="A94" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" ht="21" spans="1:3">
+      <c r="D94">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" ht="21" spans="1:4">
       <c r="A95" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" ht="21" spans="1:3">
+      <c r="D95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" ht="21" spans="1:4">
       <c r="A96" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" ht="21" spans="1:3">
+      <c r="D96">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" ht="21" spans="1:4">
       <c r="A97" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" ht="21" spans="1:3">
+      <c r="D97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" ht="21" spans="1:4">
       <c r="A98" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D98">
+        <v>43</v>
+      </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="18"/>
-      <c r="B100" s="17"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3528,7 +3793,7 @@
       <c r="A102" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -3539,7 +3804,7 @@
       <c r="A103" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -3550,7 +3815,7 @@
       <c r="A104" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -3561,7 +3826,7 @@
       <c r="A105" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -3572,7 +3837,7 @@
       <c r="A106" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -3583,7 +3848,7 @@
       <c r="A107" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -3594,7 +3859,7 @@
       <c r="A108" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -3605,7 +3870,7 @@
       <c r="A109" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -3616,7 +3881,7 @@
       <c r="A110" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -3627,7 +3892,7 @@
       <c r="A111" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -3638,7 +3903,7 @@
       <c r="A112" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -3649,7 +3914,7 @@
       <c r="A113" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -3660,7 +3925,7 @@
       <c r="A114" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -3671,7 +3936,7 @@
       <c r="A115" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -3682,7 +3947,7 @@
       <c r="A116" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -3693,7 +3958,7 @@
       <c r="A117" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -3704,7 +3969,7 @@
       <c r="A118" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -3715,7 +3980,7 @@
       <c r="A119" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -3726,7 +3991,7 @@
       <c r="A120" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -3737,7 +4002,7 @@
       <c r="A121" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -3748,7 +4013,7 @@
       <c r="A122" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -3759,7 +4024,7 @@
       <c r="A123" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -3770,7 +4035,7 @@
       <c r="A124" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -3781,7 +4046,7 @@
       <c r="A125" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -3792,7 +4057,7 @@
       <c r="A126" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="15" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -3803,7 +4068,7 @@
       <c r="A127" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -3814,7 +4079,7 @@
       <c r="A128" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -3825,7 +4090,7 @@
       <c r="A129" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -3836,7 +4101,7 @@
       <c r="A130" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
@@ -3847,7 +4112,7 @@
       <c r="A131" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3858,7 +4123,7 @@
       <c r="A132" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -3869,7 +4134,7 @@
       <c r="A133" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
@@ -3880,7 +4145,7 @@
       <c r="A134" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -3891,7 +4156,7 @@
       <c r="A135" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="15" t="s">
         <v>136</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -3902,7 +4167,7 @@
       <c r="A136" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -3910,14 +4175,14 @@
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="17"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="15" t="s">
         <v>139</v>
       </c>
       <c r="C139" s="5" t="s">
@@ -3925,10 +4190,10 @@
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="15" t="s">
         <v>140</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -3936,10 +4201,10 @@
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -3947,10 +4212,10 @@
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="15" t="s">
         <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -3958,10 +4223,10 @@
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="15" t="s">
         <v>143</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -3969,10 +4234,10 @@
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -3980,10 +4245,10 @@
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="18" t="s">
+      <c r="A145" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -3991,10 +4256,10 @@
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -4002,10 +4267,10 @@
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -4013,10 +4278,10 @@
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="15" t="s">
         <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -4024,10 +4289,10 @@
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="15" t="s">
         <v>149</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -4035,10 +4300,10 @@
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="15" t="s">
         <v>150</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -4046,10 +4311,10 @@
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="15" t="s">
         <v>151</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -4057,10 +4322,10 @@
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B152" s="15" t="s">
         <v>152</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -4068,10 +4333,10 @@
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -4079,10 +4344,10 @@
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="15" t="s">
         <v>154</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -4090,10 +4355,10 @@
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="15" t="s">
         <v>155</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -4101,10 +4366,10 @@
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -4112,10 +4377,10 @@
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="18" t="s">
+      <c r="A157" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="15" t="s">
         <v>157</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -4123,10 +4388,10 @@
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="15" t="s">
         <v>158</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -4134,10 +4399,10 @@
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -4145,10 +4410,10 @@
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="15" t="s">
         <v>160</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -4156,10 +4421,10 @@
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="15" t="s">
         <v>161</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -4167,10 +4432,10 @@
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -4178,10 +4443,10 @@
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="15" t="s">
         <v>163</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -4189,10 +4454,10 @@
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="16" t="s">
         <v>164</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -4200,10 +4465,10 @@
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="18" t="s">
+      <c r="A165" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="16" t="s">
         <v>165</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -4211,10 +4476,10 @@
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="15" t="s">
         <v>166</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -4222,10 +4487,10 @@
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="18" t="s">
+      <c r="A167" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -4233,10 +4498,10 @@
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -4244,10 +4509,10 @@
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C169" s="5" t="s">
@@ -4255,10 +4520,10 @@
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C170" s="5" t="s">
@@ -4266,10 +4531,10 @@
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -4277,10 +4542,10 @@
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C172" s="5" t="s">
@@ -4288,10 +4553,10 @@
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C173" s="5" t="s">
@@ -4299,10 +4564,10 @@
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C174" s="5" t="s">
@@ -4310,14 +4575,14 @@
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="17"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C177" s="5" t="s">
@@ -4328,7 +4593,7 @@
       <c r="A178" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C178" s="5" t="s">
@@ -4339,7 +4604,7 @@
       <c r="A179" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -4350,7 +4615,7 @@
       <c r="A180" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C180" s="5" t="s">
@@ -4361,7 +4626,7 @@
       <c r="A181" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="15" t="s">
         <v>180</v>
       </c>
       <c r="C181" s="5" t="s">
@@ -4372,7 +4637,7 @@
       <c r="A182" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B182" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C182" s="5" t="s">
@@ -4383,7 +4648,7 @@
       <c r="A183" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C183" s="5" t="s">
@@ -4394,7 +4659,7 @@
       <c r="A184" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C184" s="5" t="s">
@@ -4405,7 +4670,7 @@
       <c r="A185" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B185" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C185" s="5" t="s">
@@ -4416,7 +4681,7 @@
       <c r="A186" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C186" s="5" t="s">
@@ -4427,7 +4692,7 @@
       <c r="A187" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="15" t="s">
         <v>186</v>
       </c>
       <c r="C187" s="5" t="s">
@@ -4438,7 +4703,7 @@
       <c r="A188" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="B188" s="15" t="s">
         <v>187</v>
       </c>
       <c r="C188" s="5" t="s">
@@ -4449,7 +4714,7 @@
       <c r="A189" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="15" t="s">
         <v>188</v>
       </c>
       <c r="C189" s="5" t="s">
@@ -4460,7 +4725,7 @@
       <c r="A190" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="15" t="s">
         <v>189</v>
       </c>
       <c r="C190" s="5" t="s">
@@ -4471,7 +4736,7 @@
       <c r="A191" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B191" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C191" s="5" t="s">
@@ -4482,7 +4747,7 @@
       <c r="A192" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B192" s="16" t="s">
+      <c r="B192" s="15" t="s">
         <v>191</v>
       </c>
       <c r="C192" s="5" t="s">
@@ -4493,7 +4758,7 @@
       <c r="A193" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B193" s="15" t="s">
         <v>192</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4504,7 +4769,7 @@
       <c r="A194" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B194" s="15" t="s">
         <v>193</v>
       </c>
       <c r="C194" s="5" t="s">
@@ -4515,7 +4780,7 @@
       <c r="A195" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B195" s="16" t="s">
+      <c r="B195" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C195" s="5" t="s">
@@ -4526,7 +4791,7 @@
       <c r="A196" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B196" s="16" t="s">
+      <c r="B196" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -4537,7 +4802,7 @@
       <c r="A197" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B197" s="16" t="s">
+      <c r="B197" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C197" s="5" t="s">
@@ -4548,7 +4813,7 @@
       <c r="A198" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B198" s="16" t="s">
+      <c r="B198" s="15" t="s">
         <v>197</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -4559,7 +4824,7 @@
       <c r="A199" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B199" s="16" t="s">
+      <c r="B199" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C199" s="5" t="s">
@@ -4570,7 +4835,7 @@
       <c r="A200" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B200" s="16" t="s">
+      <c r="B200" s="15" t="s">
         <v>199</v>
       </c>
       <c r="C200" s="5" t="s">
@@ -4581,7 +4846,7 @@
       <c r="A201" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B201" s="16" t="s">
+      <c r="B201" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -4592,7 +4857,7 @@
       <c r="A202" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="B202" s="15" t="s">
         <v>201</v>
       </c>
       <c r="C202" s="5" t="s">
@@ -4603,7 +4868,7 @@
       <c r="A203" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B203" s="16" t="s">
+      <c r="B203" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C203" s="5" t="s">
@@ -4614,7 +4879,7 @@
       <c r="A204" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="B204" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -4625,7 +4890,7 @@
       <c r="A205" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B205" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C205" s="5" t="s">
@@ -4636,7 +4901,7 @@
       <c r="A206" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="15" t="s">
         <v>205</v>
       </c>
       <c r="C206" s="5" t="s">
@@ -4647,7 +4912,7 @@
       <c r="A207" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B207" s="16" t="s">
+      <c r="B207" s="15" t="s">
         <v>206</v>
       </c>
       <c r="C207" s="5" t="s">
@@ -4658,7 +4923,7 @@
       <c r="A208" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B208" s="15" t="s">
         <v>207</v>
       </c>
       <c r="C208" s="5" t="s">
@@ -4669,7 +4934,7 @@
       <c r="A209" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B209" s="16" t="s">
+      <c r="B209" s="15" t="s">
         <v>208</v>
       </c>
       <c r="C209" s="5" t="s">
@@ -4680,7 +4945,7 @@
       <c r="A210" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B210" s="16" t="s">
+      <c r="B210" s="15" t="s">
         <v>209</v>
       </c>
       <c r="C210" s="5" t="s">
@@ -4691,7 +4956,7 @@
       <c r="A211" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B211" s="16" t="s">
+      <c r="B211" s="15" t="s">
         <v>210</v>
       </c>
       <c r="C211" s="5" t="s">
@@ -4699,20 +4964,20 @@
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="18"/>
-      <c r="B212" s="17"/>
+      <c r="A212" s="17"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="18"/>
-      <c r="B213" s="17"/>
+      <c r="A213" s="17"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B214" s="16" t="s">
+      <c r="B214" s="15" t="s">
         <v>212</v>
       </c>
       <c r="C214" s="5" t="s">
@@ -4723,7 +4988,7 @@
       <c r="A215" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="16" t="s">
+      <c r="B215" s="15" t="s">
         <v>213</v>
       </c>
       <c r="C215" s="5" t="s">
@@ -4734,7 +4999,7 @@
       <c r="A216" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B216" s="16" t="s">
+      <c r="B216" s="15" t="s">
         <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -4745,7 +5010,7 @@
       <c r="A217" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B217" s="16" t="s">
+      <c r="B217" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C217" s="5" t="s">
@@ -4756,7 +5021,7 @@
       <c r="A218" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B218" s="16" t="s">
+      <c r="B218" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C218" s="5" t="s">
@@ -4767,7 +5032,7 @@
       <c r="A219" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B219" s="16" t="s">
+      <c r="B219" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C219" s="5" t="s">
@@ -4778,7 +5043,7 @@
       <c r="A220" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B220" s="19" t="s">
+      <c r="B220" s="18" t="s">
         <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4789,7 +5054,7 @@
       <c r="A221" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B221" s="16" t="s">
+      <c r="B221" s="15" t="s">
         <v>219</v>
       </c>
       <c r="C221" s="5" t="s">
@@ -4800,7 +5065,7 @@
       <c r="A222" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B222" s="16" t="s">
+      <c r="B222" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C222" s="5" t="s">
@@ -4811,7 +5076,7 @@
       <c r="A223" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B223" s="16" t="s">
+      <c r="B223" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C223" s="5" t="s">
@@ -4822,7 +5087,7 @@
       <c r="A224" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B224" s="16" t="s">
+      <c r="B224" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C224" s="5" t="s">
@@ -4833,7 +5098,7 @@
       <c r="A225" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B225" s="16" t="s">
+      <c r="B225" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C225" s="5" t="s">
@@ -4844,7 +5109,7 @@
       <c r="A226" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B226" s="16" t="s">
+      <c r="B226" s="15" t="s">
         <v>224</v>
       </c>
       <c r="C226" s="5" t="s">
@@ -4855,7 +5120,7 @@
       <c r="A227" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B227" s="16" t="s">
+      <c r="B227" s="15" t="s">
         <v>225</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -4866,7 +5131,7 @@
       <c r="A228" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B228" s="16" t="s">
+      <c r="B228" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C228" s="5" t="s">
@@ -4877,7 +5142,7 @@
       <c r="A229" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B229" s="16" t="s">
+      <c r="B229" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C229" s="5" t="s">
@@ -4888,7 +5153,7 @@
       <c r="A230" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B230" s="16" t="s">
+      <c r="B230" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C230" s="5" t="s">
@@ -4899,7 +5164,7 @@
       <c r="A231" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B231" s="16" t="s">
+      <c r="B231" s="15" t="s">
         <v>229</v>
       </c>
       <c r="C231" s="5" t="s">
@@ -4910,7 +5175,7 @@
       <c r="A232" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B232" s="16" t="s">
+      <c r="B232" s="15" t="s">
         <v>230</v>
       </c>
       <c r="C232" s="5" t="s">
@@ -4921,7 +5186,7 @@
       <c r="A233" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B233" s="16" t="s">
+      <c r="B233" s="15" t="s">
         <v>231</v>
       </c>
       <c r="C233" s="5" t="s">
@@ -4932,7 +5197,7 @@
       <c r="A234" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B234" s="16" t="s">
+      <c r="B234" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C234" s="5" t="s">
@@ -4943,7 +5208,7 @@
       <c r="A235" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B235" s="16" t="s">
+      <c r="B235" s="15" t="s">
         <v>233</v>
       </c>
       <c r="C235" s="5" t="s">
@@ -4951,18 +5216,18 @@
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="17"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="17"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B238" s="16" t="s">
+      <c r="B238" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C238" s="5" t="s">
@@ -4973,7 +5238,7 @@
       <c r="A239" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B239" s="16" t="s">
+      <c r="B239" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C239" s="5" t="s">
@@ -4984,7 +5249,7 @@
       <c r="A240" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="B240" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C240" s="5" t="s">
@@ -4995,7 +5260,7 @@
       <c r="A241" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B241" s="16" t="s">
+      <c r="B241" s="15" t="s">
         <v>238</v>
       </c>
       <c r="C241" s="5" t="s">
@@ -5006,7 +5271,7 @@
       <c r="A242" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B242" s="16" t="s">
+      <c r="B242" s="15" t="s">
         <v>239</v>
       </c>
       <c r="C242" s="5" t="s">
@@ -5017,7 +5282,7 @@
       <c r="A243" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B243" s="16" t="s">
+      <c r="B243" s="15" t="s">
         <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
@@ -5028,7 +5293,7 @@
       <c r="A244" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B244" s="16" t="s">
+      <c r="B244" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
@@ -5039,7 +5304,7 @@
       <c r="A245" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="15" t="s">
         <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
@@ -5050,7 +5315,7 @@
       <c r="A246" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B246" s="16" t="s">
+      <c r="B246" s="15" t="s">
         <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
@@ -5061,7 +5326,7 @@
       <c r="A247" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B247" s="16" t="s">
+      <c r="B247" s="15" t="s">
         <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
@@ -5072,7 +5337,7 @@
       <c r="A248" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B248" s="16" t="s">
+      <c r="B248" s="15" t="s">
         <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
@@ -5083,7 +5348,7 @@
       <c r="A249" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B249" s="16" t="s">
+      <c r="B249" s="15" t="s">
         <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
@@ -5094,7 +5359,7 @@
       <c r="A250" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B250" s="16" t="s">
+      <c r="B250" s="15" t="s">
         <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
@@ -5105,7 +5370,7 @@
       <c r="A251" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B251" s="16" t="s">
+      <c r="B251" s="15" t="s">
         <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -5116,7 +5381,7 @@
       <c r="A252" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B252" s="16" t="s">
+      <c r="B252" s="15" t="s">
         <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
@@ -5127,7 +5392,7 @@
       <c r="A253" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B253" s="16" t="s">
+      <c r="B253" s="15" t="s">
         <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
@@ -5138,7 +5403,7 @@
       <c r="A254" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B254" s="16" t="s">
+      <c r="B254" s="15" t="s">
         <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
@@ -5149,7 +5414,7 @@
       <c r="A255" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B255" s="16" t="s">
+      <c r="B255" s="15" t="s">
         <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
@@ -5160,7 +5425,7 @@
       <c r="A256" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B256" s="16" t="s">
+      <c r="B256" s="15" t="s">
         <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
@@ -5171,7 +5436,7 @@
       <c r="A257" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B257" s="16" t="s">
+      <c r="B257" s="15" t="s">
         <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
@@ -5182,7 +5447,7 @@
       <c r="A258" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B258" s="16" t="s">
+      <c r="B258" s="15" t="s">
         <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
@@ -5193,7 +5458,7 @@
       <c r="A259" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="15" t="s">
         <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
@@ -5204,7 +5469,7 @@
       <c r="A260" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B260" s="16" t="s">
+      <c r="B260" s="15" t="s">
         <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
@@ -5215,7 +5480,7 @@
       <c r="A261" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B261" s="16" t="s">
+      <c r="B261" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
@@ -5226,7 +5491,7 @@
       <c r="A262" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B262" s="16" t="s">
+      <c r="B262" s="15" t="s">
         <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
@@ -5237,7 +5502,7 @@
       <c r="A263" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="B263" s="15" t="s">
         <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
@@ -5248,7 +5513,7 @@
       <c r="A264" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B264" s="16" t="s">
+      <c r="B264" s="15" t="s">
         <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
@@ -5259,7 +5524,7 @@
       <c r="A265" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B265" s="16" t="s">
+      <c r="B265" s="15" t="s">
         <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
@@ -5270,7 +5535,7 @@
       <c r="A266" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B266" s="16" t="s">
+      <c r="B266" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
@@ -5281,7 +5546,7 @@
       <c r="A267" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="15" t="s">
         <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
@@ -5292,7 +5557,7 @@
       <c r="A268" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B268" s="16" t="s">
+      <c r="B268" s="15" t="s">
         <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
@@ -5303,7 +5568,7 @@
       <c r="A269" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="B269" s="15" t="s">
         <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
@@ -5314,7 +5579,7 @@
       <c r="A270" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="15" t="s">
         <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
@@ -5325,7 +5590,7 @@
       <c r="A271" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C271" s="5" t="s">
@@ -5336,7 +5601,7 @@
       <c r="A272" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B272" s="16" t="s">
+      <c r="B272" s="15" t="s">
         <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
@@ -5344,18 +5609,18 @@
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="17"/>
+      <c r="B273" s="16"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="17"/>
+      <c r="B274" s="16"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B275" s="16" t="s">
+      <c r="B275" s="15" t="s">
         <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
@@ -5366,7 +5631,7 @@
       <c r="A276" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B276" s="16" t="s">
+      <c r="B276" s="15" t="s">
         <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
@@ -5377,7 +5642,7 @@
       <c r="A277" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B277" s="16" t="s">
+      <c r="B277" s="15" t="s">
         <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
@@ -5388,7 +5653,7 @@
       <c r="A278" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B278" s="16" t="s">
+      <c r="B278" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
@@ -5399,7 +5664,7 @@
       <c r="A279" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B279" s="16" t="s">
+      <c r="B279" s="15" t="s">
         <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
@@ -5410,7 +5675,7 @@
       <c r="A280" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B280" s="16" t="s">
+      <c r="B280" s="15" t="s">
         <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
@@ -5421,7 +5686,7 @@
       <c r="A281" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B281" s="16" t="s">
+      <c r="B281" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
@@ -5432,7 +5697,7 @@
       <c r="A282" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B282" s="16" t="s">
+      <c r="B282" s="15" t="s">
         <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
@@ -5443,7 +5708,7 @@
       <c r="A283" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B283" s="16" t="s">
+      <c r="B283" s="15" t="s">
         <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
@@ -5454,7 +5719,7 @@
       <c r="A284" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B284" s="16" t="s">
+      <c r="B284" s="15" t="s">
         <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
@@ -5465,7 +5730,7 @@
       <c r="A285" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B285" s="16" t="s">
+      <c r="B285" s="15" t="s">
         <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
@@ -5476,7 +5741,7 @@
       <c r="A286" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B286" s="16" t="s">
+      <c r="B286" s="15" t="s">
         <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
@@ -5487,7 +5752,7 @@
       <c r="A287" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B287" s="16" t="s">
+      <c r="B287" s="15" t="s">
         <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
@@ -5498,7 +5763,7 @@
       <c r="A288" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B288" s="16" t="s">
+      <c r="B288" s="15" t="s">
         <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
@@ -5509,7 +5774,7 @@
       <c r="A289" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B289" s="16" t="s">
+      <c r="B289" s="15" t="s">
         <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
@@ -5520,7 +5785,7 @@
       <c r="A290" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B290" s="16" t="s">
+      <c r="B290" s="15" t="s">
         <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
@@ -5531,7 +5796,7 @@
       <c r="A291" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B291" s="16" t="s">
+      <c r="B291" s="15" t="s">
         <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
@@ -5542,7 +5807,7 @@
       <c r="A292" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B292" s="16" t="s">
+      <c r="B292" s="15" t="s">
         <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
@@ -5553,7 +5818,7 @@
       <c r="A293" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B293" s="16" t="s">
+      <c r="B293" s="15" t="s">
         <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
@@ -5561,18 +5826,18 @@
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="17"/>
+      <c r="B294" s="16"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="17"/>
+      <c r="B295" s="16"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B296" s="16" t="s">
+      <c r="B296" s="15" t="s">
         <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
@@ -5583,7 +5848,7 @@
       <c r="A297" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B297" s="16" t="s">
+      <c r="B297" s="15" t="s">
         <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
@@ -5594,7 +5859,7 @@
       <c r="A298" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B298" s="16" t="s">
+      <c r="B298" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
@@ -5605,7 +5870,7 @@
       <c r="A299" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B299" s="16" t="s">
+      <c r="B299" s="15" t="s">
         <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
@@ -5616,7 +5881,7 @@
       <c r="A300" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B300" s="16" t="s">
+      <c r="B300" s="15" t="s">
         <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
@@ -5627,7 +5892,7 @@
       <c r="A301" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B301" s="16" t="s">
+      <c r="B301" s="15" t="s">
         <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
@@ -5638,7 +5903,7 @@
       <c r="A302" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B302" s="16" t="s">
+      <c r="B302" s="15" t="s">
         <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
@@ -5649,7 +5914,7 @@
       <c r="A303" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B303" s="16" t="s">
+      <c r="B303" s="15" t="s">
         <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
@@ -5660,7 +5925,7 @@
       <c r="A304" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B304" s="16" t="s">
+      <c r="B304" s="15" t="s">
         <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
@@ -5671,7 +5936,7 @@
       <c r="A305" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B305" s="16" t="s">
+      <c r="B305" s="15" t="s">
         <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
@@ -5682,7 +5947,7 @@
       <c r="A306" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B306" s="16" t="s">
+      <c r="B306" s="15" t="s">
         <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
@@ -5693,7 +5958,7 @@
       <c r="A307" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B307" s="16" t="s">
+      <c r="B307" s="15" t="s">
         <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
@@ -5704,7 +5969,7 @@
       <c r="A308" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B308" s="16" t="s">
+      <c r="B308" s="15" t="s">
         <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
@@ -5715,7 +5980,7 @@
       <c r="A309" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B309" s="19" t="s">
+      <c r="B309" s="18" t="s">
         <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5726,7 +5991,7 @@
       <c r="A310" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B310" s="16" t="s">
+      <c r="B310" s="15" t="s">
         <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
@@ -5737,7 +6002,7 @@
       <c r="A311" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B311" s="16" t="s">
+      <c r="B311" s="15" t="s">
         <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
@@ -5748,7 +6013,7 @@
       <c r="A312" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B312" s="16" t="s">
+      <c r="B312" s="15" t="s">
         <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
@@ -5759,7 +6024,7 @@
       <c r="A313" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B313" s="16" t="s">
+      <c r="B313" s="15" t="s">
         <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
@@ -5770,7 +6035,7 @@
       <c r="A314" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B314" s="16" t="s">
+      <c r="B314" s="15" t="s">
         <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
@@ -5781,7 +6046,7 @@
       <c r="A315" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B315" s="16" t="s">
+      <c r="B315" s="15" t="s">
         <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
@@ -5792,7 +6057,7 @@
       <c r="A316" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B316" s="16" t="s">
+      <c r="B316" s="15" t="s">
         <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
@@ -5803,7 +6068,7 @@
       <c r="A317" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B317" s="16" t="s">
+      <c r="B317" s="15" t="s">
         <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
@@ -5814,7 +6079,7 @@
       <c r="A318" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B318" s="16" t="s">
+      <c r="B318" s="15" t="s">
         <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
@@ -5825,7 +6090,7 @@
       <c r="A319" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B319" s="16" t="s">
+      <c r="B319" s="15" t="s">
         <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
@@ -5836,7 +6101,7 @@
       <c r="A320" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B320" s="16" t="s">
+      <c r="B320" s="15" t="s">
         <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
@@ -5847,7 +6112,7 @@
       <c r="A321" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B321" s="16" t="s">
+      <c r="B321" s="15" t="s">
         <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
@@ -5858,7 +6123,7 @@
       <c r="A322" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B322" s="16" t="s">
+      <c r="B322" s="15" t="s">
         <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
@@ -5869,7 +6134,7 @@
       <c r="A323" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B323" s="16" t="s">
+      <c r="B323" s="15" t="s">
         <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
@@ -5880,7 +6145,7 @@
       <c r="A324" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B324" s="16" t="s">
+      <c r="B324" s="15" t="s">
         <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
@@ -5891,7 +6156,7 @@
       <c r="A325" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B325" s="16" t="s">
+      <c r="B325" s="15" t="s">
         <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
@@ -5902,7 +6167,7 @@
       <c r="A326" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B326" s="16" t="s">
+      <c r="B326" s="15" t="s">
         <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
@@ -5913,7 +6178,7 @@
       <c r="A327" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B327" s="16" t="s">
+      <c r="B327" s="15" t="s">
         <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
@@ -5924,7 +6189,7 @@
       <c r="A328" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B328" s="16" t="s">
+      <c r="B328" s="15" t="s">
         <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
@@ -5935,7 +6200,7 @@
       <c r="A329" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B329" s="16" t="s">
+      <c r="B329" s="15" t="s">
         <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
@@ -5946,7 +6211,7 @@
       <c r="A330" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B330" s="16" t="s">
+      <c r="B330" s="15" t="s">
         <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
@@ -5957,7 +6222,7 @@
       <c r="A331" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B331" s="16" t="s">
+      <c r="B331" s="15" t="s">
         <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
@@ -5968,7 +6233,7 @@
       <c r="A332" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B332" s="16" t="s">
+      <c r="B332" s="15" t="s">
         <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
@@ -5979,7 +6244,7 @@
       <c r="A333" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B333" s="16" t="s">
+      <c r="B333" s="15" t="s">
         <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
@@ -5987,18 +6252,18 @@
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="17"/>
+      <c r="B334" s="16"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="17"/>
+      <c r="B335" s="16"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="18" t="s">
+      <c r="A336" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B336" s="16" t="s">
+      <c r="B336" s="15" t="s">
         <v>329</v>
       </c>
       <c r="C336" s="5" t="s">
@@ -6006,10 +6271,10 @@
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="18" t="s">
+      <c r="A337" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B337" s="16" t="s">
+      <c r="B337" s="15" t="s">
         <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
@@ -6017,10 +6282,10 @@
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="18" t="s">
+      <c r="A338" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B338" s="16" t="s">
+      <c r="B338" s="15" t="s">
         <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
@@ -6028,10 +6293,10 @@
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="18" t="s">
+      <c r="A339" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B339" s="16" t="s">
+      <c r="B339" s="15" t="s">
         <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
@@ -6039,10 +6304,10 @@
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="18" t="s">
+      <c r="A340" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B340" s="16" t="s">
+      <c r="B340" s="15" t="s">
         <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
@@ -6050,10 +6315,10 @@
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="18" t="s">
+      <c r="A341" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B341" s="16" t="s">
+      <c r="B341" s="15" t="s">
         <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
@@ -6061,10 +6326,10 @@
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="18" t="s">
+      <c r="A342" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B342" s="16" t="s">
+      <c r="B342" s="15" t="s">
         <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
@@ -6072,10 +6337,10 @@
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="18" t="s">
+      <c r="A343" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B343" s="16" t="s">
+      <c r="B343" s="15" t="s">
         <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
@@ -6083,10 +6348,10 @@
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="18" t="s">
+      <c r="A344" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B344" s="19" t="s">
+      <c r="B344" s="18" t="s">
         <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -6094,10 +6359,10 @@
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="18" t="s">
+      <c r="A345" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B345" s="16" t="s">
+      <c r="B345" s="15" t="s">
         <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
@@ -6105,10 +6370,10 @@
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="18" t="s">
+      <c r="A346" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B346" s="16" t="s">
+      <c r="B346" s="15" t="s">
         <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
@@ -6116,10 +6381,10 @@
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="18" t="s">
+      <c r="A347" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B347" s="16" t="s">
+      <c r="B347" s="15" t="s">
         <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
@@ -6127,10 +6392,10 @@
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="18" t="s">
+      <c r="A348" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B348" s="16" t="s">
+      <c r="B348" s="15" t="s">
         <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
@@ -6138,10 +6403,10 @@
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="18" t="s">
+      <c r="A349" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B349" s="16" t="s">
+      <c r="B349" s="15" t="s">
         <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
@@ -6149,10 +6414,10 @@
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="18" t="s">
+      <c r="A350" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B350" s="16" t="s">
+      <c r="B350" s="15" t="s">
         <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
@@ -6160,10 +6425,10 @@
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="18" t="s">
+      <c r="A351" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B351" s="16" t="s">
+      <c r="B351" s="15" t="s">
         <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
@@ -6171,10 +6436,10 @@
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="18" t="s">
+      <c r="A352" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B352" s="16" t="s">
+      <c r="B352" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
@@ -6182,10 +6447,10 @@
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="18" t="s">
+      <c r="A353" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B353" s="16" t="s">
+      <c r="B353" s="15" t="s">
         <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
@@ -6193,18 +6458,18 @@
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="17"/>
+      <c r="B354" s="16"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="17"/>
+      <c r="B355" s="16"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="18" t="s">
+      <c r="A356" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B356" s="16" t="s">
+      <c r="B356" s="15" t="s">
         <v>348</v>
       </c>
       <c r="C356" s="5" t="s">
@@ -6212,10 +6477,10 @@
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="18" t="s">
+      <c r="A357" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B357" s="16" t="s">
+      <c r="B357" s="15" t="s">
         <v>349</v>
       </c>
       <c r="C357" s="5" t="s">
@@ -6223,10 +6488,10 @@
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="18" t="s">
+      <c r="A358" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B358" s="16" t="s">
+      <c r="B358" s="15" t="s">
         <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
@@ -6234,10 +6499,10 @@
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="18" t="s">
+      <c r="A359" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B359" s="16" t="s">
+      <c r="B359" s="15" t="s">
         <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
@@ -6245,10 +6510,10 @@
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="18" t="s">
+      <c r="A360" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B360" s="16" t="s">
+      <c r="B360" s="15" t="s">
         <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
@@ -6256,10 +6521,10 @@
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="18" t="s">
+      <c r="A361" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B361" s="16" t="s">
+      <c r="B361" s="15" t="s">
         <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
@@ -6267,10 +6532,10 @@
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="18" t="s">
+      <c r="A362" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B362" s="16" t="s">
+      <c r="B362" s="15" t="s">
         <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
@@ -6278,10 +6543,10 @@
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="18" t="s">
+      <c r="A363" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B363" s="16" t="s">
+      <c r="B363" s="15" t="s">
         <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
@@ -6289,10 +6554,10 @@
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="18" t="s">
+      <c r="A364" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B364" s="16" t="s">
+      <c r="B364" s="15" t="s">
         <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
@@ -6300,10 +6565,10 @@
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="18" t="s">
+      <c r="A365" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B365" s="16" t="s">
+      <c r="B365" s="15" t="s">
         <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
@@ -6311,10 +6576,10 @@
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="18" t="s">
+      <c r="A366" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B366" s="16" t="s">
+      <c r="B366" s="15" t="s">
         <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
@@ -6322,10 +6587,10 @@
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="18" t="s">
+      <c r="A367" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B367" s="16" t="s">
+      <c r="B367" s="15" t="s">
         <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
@@ -6333,10 +6598,10 @@
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="18" t="s">
+      <c r="A368" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B368" s="16" t="s">
+      <c r="B368" s="15" t="s">
         <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
@@ -6344,10 +6609,10 @@
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="18" t="s">
+      <c r="A369" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B369" s="16" t="s">
+      <c r="B369" s="15" t="s">
         <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
@@ -6355,10 +6620,10 @@
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="18" t="s">
+      <c r="A370" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B370" s="16" t="s">
+      <c r="B370" s="15" t="s">
         <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
@@ -6366,10 +6631,10 @@
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="18" t="s">
+      <c r="A371" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B371" s="16" t="s">
+      <c r="B371" s="15" t="s">
         <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
@@ -6377,10 +6642,10 @@
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="18" t="s">
+      <c r="A372" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B372" s="16" t="s">
+      <c r="B372" s="15" t="s">
         <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
@@ -6388,10 +6653,10 @@
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="18" t="s">
+      <c r="A373" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B373" s="16" t="s">
+      <c r="B373" s="15" t="s">
         <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
@@ -6399,10 +6664,10 @@
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="18" t="s">
+      <c r="A374" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B374" s="16" t="s">
+      <c r="B374" s="15" t="s">
         <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
@@ -6410,10 +6675,10 @@
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="18" t="s">
+      <c r="A375" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B375" s="16" t="s">
+      <c r="B375" s="15" t="s">
         <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
@@ -6421,10 +6686,10 @@
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="18" t="s">
+      <c r="A376" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B376" s="16" t="s">
+      <c r="B376" s="15" t="s">
         <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
@@ -6432,10 +6697,10 @@
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="18" t="s">
+      <c r="A377" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B377" s="16" t="s">
+      <c r="B377" s="15" t="s">
         <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
@@ -6443,10 +6708,10 @@
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="18" t="s">
+      <c r="A378" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B378" s="16" t="s">
+      <c r="B378" s="15" t="s">
         <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
@@ -6454,10 +6719,10 @@
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="18" t="s">
+      <c r="A379" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B379" s="16" t="s">
+      <c r="B379" s="15" t="s">
         <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
@@ -6465,10 +6730,10 @@
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="18" t="s">
+      <c r="A380" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B380" s="16" t="s">
+      <c r="B380" s="15" t="s">
         <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
@@ -6476,10 +6741,10 @@
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="18" t="s">
+      <c r="A381" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B381" s="16" t="s">
+      <c r="B381" s="15" t="s">
         <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
@@ -6487,10 +6752,10 @@
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="18" t="s">
+      <c r="A382" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B382" s="16" t="s">
+      <c r="B382" s="15" t="s">
         <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
@@ -6498,10 +6763,10 @@
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="18" t="s">
+      <c r="A383" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B383" s="16" t="s">
+      <c r="B383" s="15" t="s">
         <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
@@ -6509,10 +6774,10 @@
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="18" t="s">
+      <c r="A384" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B384" s="16" t="s">
+      <c r="B384" s="15" t="s">
         <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
@@ -6520,10 +6785,10 @@
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="18" t="s">
+      <c r="A385" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B385" s="16" t="s">
+      <c r="B385" s="15" t="s">
         <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
@@ -6531,10 +6796,10 @@
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="18" t="s">
+      <c r="A386" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B386" s="16" t="s">
+      <c r="B386" s="15" t="s">
         <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
@@ -6542,10 +6807,10 @@
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="18" t="s">
+      <c r="A387" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B387" s="16" t="s">
+      <c r="B387" s="15" t="s">
         <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
@@ -6553,10 +6818,10 @@
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="18" t="s">
+      <c r="A388" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B388" s="16" t="s">
+      <c r="B388" s="15" t="s">
         <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
@@ -6564,10 +6829,10 @@
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="18" t="s">
+      <c r="A389" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B389" s="16" t="s">
+      <c r="B389" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
@@ -6575,10 +6840,10 @@
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="18" t="s">
+      <c r="A390" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B390" s="16" t="s">
+      <c r="B390" s="15" t="s">
         <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
@@ -6586,10 +6851,10 @@
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="18" t="s">
+      <c r="A391" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B391" s="16" t="s">
+      <c r="B391" s="15" t="s">
         <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
@@ -6597,10 +6862,10 @@
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="18" t="s">
+      <c r="A392" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B392" s="16" t="s">
+      <c r="B392" s="15" t="s">
         <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
@@ -6608,10 +6873,10 @@
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="18" t="s">
+      <c r="A393" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B393" s="16" t="s">
+      <c r="B393" s="15" t="s">
         <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
@@ -6619,10 +6884,10 @@
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="18" t="s">
+      <c r="A394" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B394" s="16" t="s">
+      <c r="B394" s="15" t="s">
         <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
@@ -6630,10 +6895,10 @@
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="18" t="s">
+      <c r="A395" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B395" s="16" t="s">
+      <c r="B395" s="15" t="s">
         <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
@@ -6641,10 +6906,10 @@
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="18" t="s">
+      <c r="A396" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B396" s="16" t="s">
+      <c r="B396" s="15" t="s">
         <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
@@ -6652,10 +6917,10 @@
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="18" t="s">
+      <c r="A397" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B397" s="16" t="s">
+      <c r="B397" s="15" t="s">
         <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
@@ -6663,10 +6928,10 @@
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="18" t="s">
+      <c r="A398" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B398" s="16" t="s">
+      <c r="B398" s="15" t="s">
         <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
@@ -6674,10 +6939,10 @@
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="18" t="s">
+      <c r="A399" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B399" s="16" t="s">
+      <c r="B399" s="15" t="s">
         <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
@@ -6685,18 +6950,18 @@
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="17"/>
+      <c r="B400" s="16"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="17"/>
+      <c r="B401" s="16"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="18" t="s">
+      <c r="A402" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B402" s="16" t="s">
+      <c r="B402" s="15" t="s">
         <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
@@ -6704,10 +6969,10 @@
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="18" t="s">
+      <c r="A403" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B403" s="16" t="s">
+      <c r="B403" s="15" t="s">
         <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
@@ -6715,10 +6980,10 @@
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="18" t="s">
+      <c r="A404" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B404" s="16" t="s">
+      <c r="B404" s="15" t="s">
         <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
@@ -6726,10 +6991,10 @@
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="18" t="s">
+      <c r="A405" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B405" s="16" t="s">
+      <c r="B405" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C405" s="5" t="s">
@@ -6737,10 +7002,10 @@
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="18" t="s">
+      <c r="A406" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B406" s="16" t="s">
+      <c r="B406" s="15" t="s">
         <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
@@ -6748,10 +7013,10 @@
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="18" t="s">
+      <c r="A407" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B407" s="16" t="s">
+      <c r="B407" s="15" t="s">
         <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
@@ -6759,18 +7024,18 @@
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="17"/>
+      <c r="B408" s="16"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="17"/>
+      <c r="B409" s="16"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B410" s="16" t="s">
+      <c r="B410" s="15" t="s">
         <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
@@ -6781,7 +7046,7 @@
       <c r="A411" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B411" s="16" t="s">
+      <c r="B411" s="15" t="s">
         <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
@@ -6792,7 +7057,7 @@
       <c r="A412" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B412" s="16" t="s">
+      <c r="B412" s="15" t="s">
         <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
@@ -6803,7 +7068,7 @@
       <c r="A413" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B413" s="16" t="s">
+      <c r="B413" s="15" t="s">
         <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
@@ -6814,7 +7079,7 @@
       <c r="A414" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B414" s="16" t="s">
+      <c r="B414" s="15" t="s">
         <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
@@ -6825,7 +7090,7 @@
       <c r="A415" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B415" s="16" t="s">
+      <c r="B415" s="15" t="s">
         <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
@@ -6836,7 +7101,7 @@
       <c r="A416" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B416" s="16" t="s">
+      <c r="B416" s="15" t="s">
         <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
@@ -6847,7 +7112,7 @@
       <c r="A417" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B417" s="16" t="s">
+      <c r="B417" s="15" t="s">
         <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
@@ -6858,7 +7123,7 @@
       <c r="A418" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B418" s="16" t="s">
+      <c r="B418" s="15" t="s">
         <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
@@ -6869,7 +7134,7 @@
       <c r="A419" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B419" s="16" t="s">
+      <c r="B419" s="15" t="s">
         <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
@@ -6880,7 +7145,7 @@
       <c r="A420" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B420" s="16" t="s">
+      <c r="B420" s="15" t="s">
         <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
@@ -6891,7 +7156,7 @@
       <c r="A421" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B421" s="16" t="s">
+      <c r="B421" s="15" t="s">
         <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
@@ -6902,7 +7167,7 @@
       <c r="A422" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B422" s="16" t="s">
+      <c r="B422" s="15" t="s">
         <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
@@ -6913,7 +7178,7 @@
       <c r="A423" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B423" s="16" t="s">
+      <c r="B423" s="15" t="s">
         <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
@@ -6924,7 +7189,7 @@
       <c r="A424" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B424" s="16" t="s">
+      <c r="B424" s="15" t="s">
         <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
@@ -6935,7 +7200,7 @@
       <c r="A425" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B425" s="16" t="s">
+      <c r="B425" s="15" t="s">
         <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
@@ -6946,7 +7211,7 @@
       <c r="A426" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B426" s="16" t="s">
+      <c r="B426" s="15" t="s">
         <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
@@ -6957,7 +7222,7 @@
       <c r="A427" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B427" s="16" t="s">
+      <c r="B427" s="15" t="s">
         <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
@@ -6968,7 +7233,7 @@
       <c r="A428" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B428" s="16" t="s">
+      <c r="B428" s="15" t="s">
         <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
@@ -6979,7 +7244,7 @@
       <c r="A429" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B429" s="16" t="s">
+      <c r="B429" s="15" t="s">
         <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
@@ -6990,7 +7255,7 @@
       <c r="A430" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B430" s="16" t="s">
+      <c r="B430" s="15" t="s">
         <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
@@ -7001,7 +7266,7 @@
       <c r="A431" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B431" s="16" t="s">
+      <c r="B431" s="15" t="s">
         <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
@@ -7012,7 +7277,7 @@
       <c r="A432" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B432" s="16" t="s">
+      <c r="B432" s="15" t="s">
         <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
@@ -7023,7 +7288,7 @@
       <c r="A433" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B433" s="16" t="s">
+      <c r="B433" s="15" t="s">
         <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
@@ -7034,7 +7299,7 @@
       <c r="A434" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B434" s="16" t="s">
+      <c r="B434" s="15" t="s">
         <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
@@ -7045,7 +7310,7 @@
       <c r="A435" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B435" s="16" t="s">
+      <c r="B435" s="15" t="s">
         <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
@@ -7056,7 +7321,7 @@
       <c r="A436" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B436" s="16" t="s">
+      <c r="B436" s="15" t="s">
         <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
@@ -7067,7 +7332,7 @@
       <c r="A437" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B437" s="16" t="s">
+      <c r="B437" s="15" t="s">
         <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
@@ -7078,7 +7343,7 @@
       <c r="A438" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B438" s="16" t="s">
+      <c r="B438" s="15" t="s">
         <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
@@ -7089,7 +7354,7 @@
       <c r="A439" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B439" s="16" t="s">
+      <c r="B439" s="15" t="s">
         <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
@@ -7100,7 +7365,7 @@
       <c r="A440" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B440" s="16" t="s">
+      <c r="B440" s="15" t="s">
         <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
@@ -7111,7 +7376,7 @@
       <c r="A441" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B441" s="16" t="s">
+      <c r="B441" s="15" t="s">
         <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
@@ -7122,7 +7387,7 @@
       <c r="A442" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B442" s="16" t="s">
+      <c r="B442" s="15" t="s">
         <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
@@ -7133,7 +7398,7 @@
       <c r="A443" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B443" s="16" t="s">
+      <c r="B443" s="15" t="s">
         <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
@@ -7144,7 +7409,7 @@
       <c r="A444" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B444" s="16" t="s">
+      <c r="B444" s="15" t="s">
         <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
@@ -7155,7 +7420,7 @@
       <c r="A445" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B445" s="16" t="s">
+      <c r="B445" s="15" t="s">
         <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
@@ -7166,7 +7431,7 @@
       <c r="A446" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B446" s="16" t="s">
+      <c r="B446" s="15" t="s">
         <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
@@ -7177,7 +7442,7 @@
       <c r="A447" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B447" s="16" t="s">
+      <c r="B447" s="15" t="s">
         <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
@@ -7188,7 +7453,7 @@
       <c r="A448" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B448" s="16" t="s">
+      <c r="B448" s="15" t="s">
         <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
@@ -7199,7 +7464,7 @@
       <c r="A449" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B449" s="16" t="s">
+      <c r="B449" s="15" t="s">
         <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
@@ -7210,7 +7475,7 @@
       <c r="A450" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B450" s="16" t="s">
+      <c r="B450" s="15" t="s">
         <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
@@ -7221,7 +7486,7 @@
       <c r="A451" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B451" s="16" t="s">
+      <c r="B451" s="15" t="s">
         <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
@@ -7232,7 +7497,7 @@
       <c r="A452" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B452" s="16" t="s">
+      <c r="B452" s="15" t="s">
         <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
@@ -7243,7 +7508,7 @@
       <c r="A453" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B453" s="16" t="s">
+      <c r="B453" s="15" t="s">
         <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
@@ -7254,7 +7519,7 @@
       <c r="A454" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B454" s="16" t="s">
+      <c r="B454" s="15" t="s">
         <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
@@ -7265,7 +7530,7 @@
       <c r="A455" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B455" s="16" t="s">
+      <c r="B455" s="15" t="s">
         <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
@@ -7276,7 +7541,7 @@
       <c r="A456" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B456" s="16" t="s">
+      <c r="B456" s="15" t="s">
         <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
@@ -7287,7 +7552,7 @@
       <c r="A457" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B457" s="16" t="s">
+      <c r="B457" s="15" t="s">
         <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
@@ -7298,7 +7563,7 @@
       <c r="A458" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B458" s="16" t="s">
+      <c r="B458" s="15" t="s">
         <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
@@ -7309,7 +7574,7 @@
       <c r="A459" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B459" s="16" t="s">
+      <c r="B459" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
@@ -7320,7 +7585,7 @@
       <c r="A460" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B460" s="16" t="s">
+      <c r="B460" s="15" t="s">
         <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
@@ -7331,7 +7596,7 @@
       <c r="A461" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B461" s="16" t="s">
+      <c r="B461" s="15" t="s">
         <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
@@ -7342,7 +7607,7 @@
       <c r="A462" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B462" s="16" t="s">
+      <c r="B462" s="15" t="s">
         <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
@@ -7353,7 +7618,7 @@
       <c r="A463" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B463" s="16" t="s">
+      <c r="B463" s="15" t="s">
         <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
@@ -7364,7 +7629,7 @@
       <c r="A464" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B464" s="16" t="s">
+      <c r="B464" s="15" t="s">
         <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
@@ -7375,7 +7640,7 @@
       <c r="A465" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B465" s="16" t="s">
+      <c r="B465" s="15" t="s">
         <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
@@ -7386,7 +7651,7 @@
       <c r="A466" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B466" s="16" t="s">
+      <c r="B466" s="15" t="s">
         <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
@@ -7397,7 +7662,7 @@
       <c r="A467" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B467" s="16" t="s">
+      <c r="B467" s="15" t="s">
         <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
@@ -7408,7 +7673,7 @@
       <c r="A468" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B468" s="16" t="s">
+      <c r="B468" s="15" t="s">
         <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
@@ -7419,7 +7684,7 @@
       <c r="A469" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B469" s="16" t="s">
+      <c r="B469" s="15" t="s">
         <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
@@ -7427,19 +7692,19 @@
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="17"/>
+      <c r="B470" s="16"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="18"/>
-      <c r="B471" s="17"/>
+      <c r="A471" s="17"/>
+      <c r="B471" s="16"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B472" s="16" t="s">
+      <c r="B472" s="15" t="s">
         <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
@@ -7450,7 +7715,7 @@
       <c r="A473" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B473" s="16" t="s">
+      <c r="B473" s="15" t="s">
         <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
@@ -7461,7 +7726,7 @@
       <c r="A474" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B474" s="16" t="s">
+      <c r="B474" s="15" t="s">
         <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
@@ -7472,7 +7737,7 @@
       <c r="A475" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B475" s="16" t="s">
+      <c r="B475" s="15" t="s">
         <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
@@ -7483,7 +7748,7 @@
       <c r="A476" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B476" s="16" t="s">
+      <c r="B476" s="15" t="s">
         <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
@@ -7494,7 +7759,7 @@
       <c r="A477" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B477" s="16" t="s">
+      <c r="B477" s="15" t="s">
         <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
@@ -7505,7 +7770,7 @@
       <c r="A478" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B478" s="16" t="s">
+      <c r="B478" s="15" t="s">
         <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
@@ -7516,7 +7781,7 @@
       <c r="A479" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B479" s="16" t="s">
+      <c r="B479" s="15" t="s">
         <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
@@ -7527,7 +7792,7 @@
       <c r="A480" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B480" s="16" t="s">
+      <c r="B480" s="15" t="s">
         <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
@@ -7538,7 +7803,7 @@
       <c r="A481" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B481" s="16" t="s">
+      <c r="B481" s="15" t="s">
         <v>467</v>
       </c>
       <c r="C481" s="5" t="s">

--- a/450_Questions/450Question.xlsx
+++ b/450_Questions/450Question.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7990"/>
+    <workbookView windowWidth="19200" windowHeight="7750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,9 +1426,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1503,7 +1503,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,6 +1523,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -1524,25 +1553,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1571,24 +1601,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1600,11 +1615,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1616,13 +1630,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1631,6 +1638,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1638,16 +1646,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,7 +1674,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,91 +1818,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,79 +1848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,6 +1865,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1883,6 +1894,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1894,15 +1914,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1954,164 +1965,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2146,6 +2146,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -2472,8 +2475,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="3"/>
@@ -4178,18 +4181,21 @@
       <c r="B138" s="16"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="17" t="s">
+    <row r="139" ht="21" spans="1:4">
+      <c r="A139" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" ht="21" spans="1:3">
+      <c r="C139" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="21" spans="1:4">
       <c r="A140" s="17" t="s">
         <v>138</v>
       </c>
@@ -4199,8 +4205,11 @@
       <c r="C140" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" ht="21" spans="1:3">
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" ht="21" spans="1:4">
       <c r="A141" s="17" t="s">
         <v>138</v>
       </c>
@@ -4210,8 +4219,11 @@
       <c r="C141" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" ht="21" spans="1:3">
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" ht="21" spans="1:4">
       <c r="A142" s="17" t="s">
         <v>138</v>
       </c>
@@ -4221,8 +4233,11 @@
       <c r="C142" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" ht="21" spans="1:3">
+      <c r="D142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" ht="21" spans="1:4">
       <c r="A143" s="17" t="s">
         <v>138</v>
       </c>
@@ -4232,8 +4247,11 @@
       <c r="C143" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" ht="21" spans="1:3">
+      <c r="D143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" ht="21" spans="1:4">
       <c r="A144" s="17" t="s">
         <v>138</v>
       </c>
@@ -4243,8 +4261,11 @@
       <c r="C144" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" ht="21" spans="1:3">
+      <c r="D144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" ht="21" spans="1:4">
       <c r="A145" s="17" t="s">
         <v>138</v>
       </c>
@@ -4254,8 +4275,11 @@
       <c r="C145" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" ht="21" spans="1:3">
+      <c r="D145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" ht="21" spans="1:4">
       <c r="A146" s="17" t="s">
         <v>138</v>
       </c>
@@ -4265,8 +4289,11 @@
       <c r="C146" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" ht="21" spans="1:3">
+      <c r="D146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" ht="21" spans="1:4">
       <c r="A147" s="17" t="s">
         <v>138</v>
       </c>
@@ -4276,19 +4303,25 @@
       <c r="C147" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" ht="21" spans="1:3">
+      <c r="D147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" ht="21" spans="1:4">
       <c r="A148" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" ht="21" spans="1:3">
+      <c r="D148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" ht="21" spans="1:4">
       <c r="A149" s="17" t="s">
         <v>138</v>
       </c>
@@ -4298,8 +4331,11 @@
       <c r="C149" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" ht="21" spans="1:3">
+      <c r="D149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" ht="21" spans="1:4">
       <c r="A150" s="17" t="s">
         <v>138</v>
       </c>
@@ -4309,8 +4345,11 @@
       <c r="C150" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" ht="21" spans="1:3">
+      <c r="D150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" ht="21" spans="1:4">
       <c r="A151" s="17" t="s">
         <v>138</v>
       </c>
@@ -4320,8 +4359,11 @@
       <c r="C151" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" ht="21" spans="1:3">
+      <c r="D151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" ht="21" spans="1:4">
       <c r="A152" s="17" t="s">
         <v>138</v>
       </c>
@@ -4331,8 +4373,11 @@
       <c r="C152" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" ht="21" spans="1:3">
+      <c r="D152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" ht="21" spans="1:4">
       <c r="A153" s="17" t="s">
         <v>138</v>
       </c>
@@ -4342,8 +4387,11 @@
       <c r="C153" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" ht="21" spans="1:3">
+      <c r="D153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" ht="21" spans="1:4">
       <c r="A154" s="17" t="s">
         <v>138</v>
       </c>
@@ -4353,8 +4401,11 @@
       <c r="C154" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" ht="21" spans="1:3">
+      <c r="D154">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" ht="21" spans="1:4">
       <c r="A155" s="17" t="s">
         <v>138</v>
       </c>
@@ -4364,8 +4415,11 @@
       <c r="C155" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" ht="21" spans="1:3">
+      <c r="D155">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" ht="21" spans="1:4">
       <c r="A156" s="17" t="s">
         <v>138</v>
       </c>
@@ -4375,8 +4429,11 @@
       <c r="C156" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" ht="21" spans="1:3">
+      <c r="D156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" ht="21" spans="1:4">
       <c r="A157" s="17" t="s">
         <v>138</v>
       </c>
@@ -4386,8 +4443,11 @@
       <c r="C157" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" ht="21" spans="1:3">
+      <c r="D157">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" ht="21" spans="1:4">
       <c r="A158" s="17" t="s">
         <v>138</v>
       </c>
@@ -4397,8 +4457,11 @@
       <c r="C158" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" ht="21" spans="1:3">
+      <c r="D158">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" ht="21" spans="1:4">
       <c r="A159" s="17" t="s">
         <v>138</v>
       </c>
@@ -4408,8 +4471,11 @@
       <c r="C159" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" ht="21" spans="1:3">
+      <c r="D159">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" ht="21" spans="1:4">
       <c r="A160" s="17" t="s">
         <v>138</v>
       </c>
@@ -4419,8 +4485,11 @@
       <c r="C160" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" ht="21" spans="1:3">
+      <c r="D160">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" ht="21" spans="1:4">
       <c r="A161" s="17" t="s">
         <v>138</v>
       </c>
@@ -4430,8 +4499,11 @@
       <c r="C161" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" ht="21" spans="1:3">
+      <c r="D161">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" ht="21" spans="1:4">
       <c r="A162" s="17" t="s">
         <v>138</v>
       </c>
@@ -4441,8 +4513,11 @@
       <c r="C162" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" ht="21" spans="1:3">
+      <c r="D162">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" ht="21" spans="1:4">
       <c r="A163" s="17" t="s">
         <v>138</v>
       </c>
@@ -4452,8 +4527,11 @@
       <c r="C163" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" ht="21" spans="1:3">
+      <c r="D163">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" ht="21" spans="1:4">
       <c r="A164" s="17" t="s">
         <v>138</v>
       </c>
@@ -4463,8 +4541,11 @@
       <c r="C164" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" ht="21" spans="1:3">
+      <c r="D164">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" ht="21" spans="1:4">
       <c r="A165" s="17" t="s">
         <v>138</v>
       </c>
@@ -4474,8 +4555,11 @@
       <c r="C165" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" ht="21" spans="1:3">
+      <c r="D165">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" ht="21" spans="1:4">
       <c r="A166" s="17" t="s">
         <v>138</v>
       </c>
@@ -4485,8 +4569,11 @@
       <c r="C166" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" ht="21" spans="1:3">
+      <c r="D166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" ht="21" spans="1:4">
       <c r="A167" s="17" t="s">
         <v>138</v>
       </c>
@@ -4496,8 +4583,11 @@
       <c r="C167" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" ht="21" spans="1:3">
+      <c r="D167">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" ht="21" spans="1:4">
       <c r="A168" s="17" t="s">
         <v>138</v>
       </c>
@@ -4507,8 +4597,11 @@
       <c r="C168" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" ht="21" spans="1:3">
+      <c r="D168">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" ht="21" spans="1:4">
       <c r="A169" s="17" t="s">
         <v>138</v>
       </c>
@@ -4518,8 +4611,11 @@
       <c r="C169" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" ht="21" spans="1:3">
+      <c r="D169">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" ht="21" spans="1:4">
       <c r="A170" s="17" t="s">
         <v>138</v>
       </c>
@@ -4529,8 +4625,11 @@
       <c r="C170" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" ht="21" spans="1:3">
+      <c r="D170">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" ht="21" spans="1:4">
       <c r="A171" s="17" t="s">
         <v>138</v>
       </c>
@@ -4540,8 +4639,11 @@
       <c r="C171" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" ht="21" spans="1:3">
+      <c r="D171">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" ht="21" spans="1:4">
       <c r="A172" s="17" t="s">
         <v>138</v>
       </c>
@@ -4551,8 +4653,11 @@
       <c r="C172" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" ht="21" spans="1:3">
+      <c r="D172">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" ht="21" spans="1:4">
       <c r="A173" s="17" t="s">
         <v>138</v>
       </c>
@@ -4562,8 +4667,11 @@
       <c r="C173" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" ht="21" spans="1:3">
+      <c r="D173">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" ht="21" spans="1:4">
       <c r="A174" s="17" t="s">
         <v>138</v>
       </c>
@@ -4572,6 +4680,9 @@
       </c>
       <c r="C174" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="D174">
+        <v>36</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -5043,7 +5154,7 @@
       <c r="A220" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B220" s="18" t="s">
+      <c r="B220" s="19" t="s">
         <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -5833,7 +5944,7 @@
       <c r="B295" s="16"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" ht="21" spans="1:3">
+    <row r="296" ht="21" spans="1:4">
       <c r="A296" s="10" t="s">
         <v>289</v>
       </c>
@@ -5843,8 +5954,11 @@
       <c r="C296" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="297" ht="21" spans="1:3">
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" ht="21" spans="1:4">
       <c r="A297" s="10" t="s">
         <v>289</v>
       </c>
@@ -5854,8 +5968,11 @@
       <c r="C297" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" ht="21" spans="1:3">
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" ht="21" spans="1:4">
       <c r="A298" s="10" t="s">
         <v>289</v>
       </c>
@@ -5865,8 +5982,11 @@
       <c r="C298" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" ht="21" spans="1:3">
+      <c r="D298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" ht="21" spans="1:4">
       <c r="A299" s="10" t="s">
         <v>289</v>
       </c>
@@ -5876,8 +5996,11 @@
       <c r="C299" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" ht="21" spans="1:3">
+      <c r="D299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" ht="21" spans="1:4">
       <c r="A300" s="10" t="s">
         <v>289</v>
       </c>
@@ -5887,8 +6010,11 @@
       <c r="C300" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="301" ht="21" spans="1:3">
+      <c r="D300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" ht="21" spans="1:4">
       <c r="A301" s="10" t="s">
         <v>289</v>
       </c>
@@ -5898,8 +6024,11 @@
       <c r="C301" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" ht="21" spans="1:3">
+      <c r="D301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" ht="21" spans="1:4">
       <c r="A302" s="10" t="s">
         <v>289</v>
       </c>
@@ -5909,8 +6038,11 @@
       <c r="C302" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" ht="21" spans="1:3">
+      <c r="D302">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" ht="21" spans="1:4">
       <c r="A303" s="10" t="s">
         <v>289</v>
       </c>
@@ -5920,8 +6052,11 @@
       <c r="C303" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="304" ht="21" spans="1:3">
+      <c r="D303">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" ht="21" spans="1:4">
       <c r="A304" s="10" t="s">
         <v>289</v>
       </c>
@@ -5931,8 +6066,11 @@
       <c r="C304" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="305" ht="21" spans="1:3">
+      <c r="D304">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" ht="21" spans="1:4">
       <c r="A305" s="10" t="s">
         <v>289</v>
       </c>
@@ -5942,8 +6080,11 @@
       <c r="C305" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" ht="21" spans="1:3">
+      <c r="D305">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" ht="21" spans="1:4">
       <c r="A306" s="10" t="s">
         <v>289</v>
       </c>
@@ -5953,8 +6094,11 @@
       <c r="C306" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="307" ht="21" spans="1:3">
+      <c r="D306">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" ht="21" spans="1:4">
       <c r="A307" s="10" t="s">
         <v>289</v>
       </c>
@@ -5964,8 +6108,11 @@
       <c r="C307" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="308" ht="21" spans="1:3">
+      <c r="D307">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" ht="21" spans="1:4">
       <c r="A308" s="10" t="s">
         <v>289</v>
       </c>
@@ -5975,19 +6122,25 @@
       <c r="C308" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" ht="21" spans="1:3">
+      <c r="D308">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" ht="21" spans="1:4">
       <c r="A309" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B309" s="18" t="s">
+      <c r="B309" s="19" t="s">
         <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" ht="21" spans="1:3">
+      <c r="D309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" ht="21" spans="1:4">
       <c r="A310" s="10" t="s">
         <v>289</v>
       </c>
@@ -5997,8 +6150,11 @@
       <c r="C310" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="311" ht="21" spans="1:3">
+      <c r="D310">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" ht="21" spans="1:4">
       <c r="A311" s="10" t="s">
         <v>289</v>
       </c>
@@ -6008,8 +6164,11 @@
       <c r="C311" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" ht="21" spans="1:3">
+      <c r="D311">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" ht="21" spans="1:4">
       <c r="A312" s="10" t="s">
         <v>289</v>
       </c>
@@ -6019,8 +6178,11 @@
       <c r="C312" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="313" ht="21" spans="1:3">
+      <c r="D312">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" ht="21" spans="1:4">
       <c r="A313" s="10" t="s">
         <v>289</v>
       </c>
@@ -6030,8 +6192,11 @@
       <c r="C313" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" ht="21" spans="1:3">
+      <c r="D313">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" ht="21" spans="1:4">
       <c r="A314" s="10" t="s">
         <v>289</v>
       </c>
@@ -6041,8 +6206,11 @@
       <c r="C314" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="315" ht="21" spans="1:3">
+      <c r="D314">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" ht="21" spans="1:4">
       <c r="A315" s="10" t="s">
         <v>289</v>
       </c>
@@ -6052,8 +6220,11 @@
       <c r="C315" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="316" ht="21" spans="1:3">
+      <c r="D315">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" ht="21" spans="1:4">
       <c r="A316" s="10" t="s">
         <v>289</v>
       </c>
@@ -6063,8 +6234,11 @@
       <c r="C316" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="317" ht="21" spans="1:3">
+      <c r="D316">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317" ht="21" spans="1:4">
       <c r="A317" s="10" t="s">
         <v>289</v>
       </c>
@@ -6074,8 +6248,11 @@
       <c r="C317" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="318" ht="21" spans="1:3">
+      <c r="D317">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" ht="21" spans="1:4">
       <c r="A318" s="10" t="s">
         <v>289</v>
       </c>
@@ -6085,8 +6262,11 @@
       <c r="C318" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="319" ht="21" spans="1:3">
+      <c r="D318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" ht="21" spans="1:4">
       <c r="A319" s="10" t="s">
         <v>289</v>
       </c>
@@ -6096,8 +6276,11 @@
       <c r="C319" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="320" ht="21" spans="1:3">
+      <c r="D319">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" ht="21" spans="1:4">
       <c r="A320" s="10" t="s">
         <v>289</v>
       </c>
@@ -6107,8 +6290,11 @@
       <c r="C320" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="321" ht="21" spans="1:3">
+      <c r="D320">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" ht="21" spans="1:4">
       <c r="A321" s="10" t="s">
         <v>289</v>
       </c>
@@ -6118,8 +6304,11 @@
       <c r="C321" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" ht="21" spans="1:3">
+      <c r="D321">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" ht="21" spans="1:4">
       <c r="A322" s="10" t="s">
         <v>289</v>
       </c>
@@ -6129,8 +6318,11 @@
       <c r="C322" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="323" ht="21" spans="1:3">
+      <c r="D322">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="323" ht="21" spans="1:4">
       <c r="A323" s="10" t="s">
         <v>289</v>
       </c>
@@ -6140,8 +6332,11 @@
       <c r="C323" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" ht="21" spans="1:3">
+      <c r="D323">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" ht="21" spans="1:4">
       <c r="A324" s="10" t="s">
         <v>289</v>
       </c>
@@ -6151,8 +6346,11 @@
       <c r="C324" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="325" ht="21" spans="1:3">
+      <c r="D324">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" ht="21" spans="1:4">
       <c r="A325" s="10" t="s">
         <v>289</v>
       </c>
@@ -6162,8 +6360,11 @@
       <c r="C325" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" ht="21" spans="1:3">
+      <c r="D325">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" ht="21" spans="1:4">
       <c r="A326" s="10" t="s">
         <v>289</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="C326" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" ht="21" spans="1:3">
+      <c r="D326">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327" ht="21" spans="1:4">
       <c r="A327" s="10" t="s">
         <v>289</v>
       </c>
@@ -6184,8 +6388,11 @@
       <c r="C327" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" ht="21" spans="1:3">
+      <c r="D327">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="328" ht="21" spans="1:4">
       <c r="A328" s="10" t="s">
         <v>289</v>
       </c>
@@ -6195,8 +6402,11 @@
       <c r="C328" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="329" ht="21" spans="1:3">
+      <c r="D328">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329" ht="21" spans="1:4">
       <c r="A329" s="10" t="s">
         <v>289</v>
       </c>
@@ -6206,8 +6416,11 @@
       <c r="C329" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="330" ht="21" spans="1:3">
+      <c r="D329">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="330" ht="21" spans="1:4">
       <c r="A330" s="10" t="s">
         <v>289</v>
       </c>
@@ -6217,8 +6430,11 @@
       <c r="C330" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="331" ht="21" spans="1:3">
+      <c r="D330">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="331" ht="21" spans="1:4">
       <c r="A331" s="10" t="s">
         <v>289</v>
       </c>
@@ -6228,8 +6444,11 @@
       <c r="C331" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="332" ht="21" spans="1:3">
+      <c r="D331">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="332" ht="21" spans="1:4">
       <c r="A332" s="10" t="s">
         <v>289</v>
       </c>
@@ -6239,8 +6458,11 @@
       <c r="C332" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="333" ht="21" spans="1:3">
+      <c r="D332">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="333" ht="21" spans="1:4">
       <c r="A333" s="10" t="s">
         <v>289</v>
       </c>
@@ -6249,6 +6471,9 @@
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="D333">
+        <v>38</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -6351,7 +6576,7 @@
       <c r="A344" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B344" s="18" t="s">
+      <c r="B344" s="19" t="s">
         <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
